--- a/YouTube_Shorts_Automation/youtube_shorts_crawling/scraperAPI/loaded_db_100.xlsx
+++ b/YouTube_Shorts_Automation/youtube_shorts_crawling/scraperAPI/loaded_db_100.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,11 @@
           <t>check_date</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>transcript_data</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -529,13 +534,81 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[[('The audacity of assuming I can draw those perfect boxes.', '6 days ago (edited)'), ('That’s the quickest little gem of anatomy tips I’ve ever seen…!', '6 days ago'), ("When I practice I can do it, but when I'm drawing I seem to forget everything.", '5 days ago'), ('Thanks Marc, I am going to start hammering this into my process, I did a thumbnail and that was a hell of a realization. You rock man, changing lives of artists everyday!', '3 days ago'), ('Yep 100% box method helped me I was struggling with basic human design for years and just in 5 minutes I can finally draw human characters now I just need to learn shading', '4 days ago'), ('GOD YOU LITERALLY SOLVED EVERY (AND GOD SHOULD CURSE ME IF I LIE) EVERY SINGLE PROBLEM I STRUGGLED WITH IN FEW SECONDS', '5 days ago'), ("another tip would to shape the box before drawing as boxes aren't exactly the same shape as a human body and some areas (mainly shoulders and chest) would be drawn slightly incorrectly so if you draw a sphere within the box or shave the box that would help even more to draw humans more proportional. :D", '12 hours ago'), ('Quite useful, but that spacing you slipped between the boxes and talked right past is a major problem for me. I keep making my torsos too long or too short and it results in completely botched drafts.\n\nHow would you recommend rectifying this?', '6 days ago'), ('Ooh YIKES. I can feel that in the same way', '4 days ago'), ('Sorry I was very distracted by the music in the background to comprehend this good advice. The music has made me achieve enlightenment as an artist and now no longer draw to draw but now draw to draw.', '15 hours ago'), ('Bro i love you ima watch all your videos and gets your course immediately, rn i’m following the 30 days challenges ( day 7 ) ', '5 days ago'), ('Thanks Professor Xavier', '3 days ago'), ('SIR, THATS A POGGERS, I NEED THIS LESSON', '3 days ago'), ("This is a good method but for me personally I prefer to draw a bean shape for the torso (i learned it from Proko). I find it easier to twist and bend the torso from different angles with it and when I use the box method, my figures turn out more stiff than I'd like. It's definitely more a me problem than the method though.", '5 days ago (edited)'), ('I know its hard to fit everything in these quick shorts but is there tips on how much space head/torso/hips take up in that upper half?', '5 days ago'), ("Woah its like I found a cheat code I've been trying to find for a long time. Thanks!", '1 day ago'), ("Damn, lucy, you've been BUILDING.", '4 days ago'), ('It helps with training. Once you get the hang of proportions, you can get rid of your training gear and start doing it from memory or using your imagination. It also means you can easily adjust your proportions while still making it realistic.', '5 days ago'), ('Bro, you make it look so easy..', '5 days ago'), ('For the torso, I use a slightly stretched circle.\n\nIt works well enough for me.', '5 days ago'), ('thanks', '1 day ago'), ('Honestly helped me realize this is my biggest issue while drawing ', '5 days ago'), ("I'm always screwing up the connections between head and shoulders, basically the whole neck, and the connection between torso and hips.", '23 hours ago'), ('This actually breaks my brain more...', '6 days ago'), ('comically smol head at the beginning ', '3 days ago'), ('The tiny head with a huge body was funny', '1 day ago'), ('Idk first seemed very anatomically correct ngl', '5 days ago'), ('When i did this, my teachers said that my character had too long legs...', '12 hours ago'), ('As a person who draw boxes for a month, boxes are artist best friend, i swear drawing boxes iin any perspective helps you to understand anything complicated as you learn, and i recomed learning anatomy day 1, like bones and muscles, and not only drawing , first learn how bones are connected and how the muscles work and bend', '4 days ago'), ("Really good advice, yet it's like everything I learned is thrown out the window as soon as I start drawing ", '5 days ago'), ('My struggle is I always make the head either too big or too small and it always throws off the 7-8 head tall thing', '2 days ago'), ('To imagine how much space should be in between, try considering that the boxes only represent the bone structures (spine doesn’t count) and leave the space in between according to what “feels right”.\nRemember that if you ever try to check your own body to get more accurate proportions, you should not look at it, but feel the gap with your hand from the side, not from the front.\nWhat i mean by “side” is you should feel the distance between your last rib and the top of your pelvis by putting your hand on your waist and somewhat squeezing your hand between that gap. Repeat, but for the head and torso. That method should give you a pretty good idea of the distance, although I can’t say for sure since I never used this technique; I don’t draw.', '3 days ago'), ('You literally drew my palworld character ', '3 days ago'), ('Brain: "Oh I get it, easy."\nHands: "Haha!... Funny."', '2 days ago'), ("Aren't the elbows suppose to reach the middle of the stomach?", '1 day ago'), ('Nice!', '6 days ago'), ('This is a great rule of thumb, but there’s still a few things that I can’t seem to get right. How far away from each other should the boxes be? How big/tall should the boxes be? Messing up these sizes can result in some wonky bodies.', '3 days ago'), ('I tried this and it works pretty well but I’m bad at eyeballing this the relative size of things so I’m still pretty bad at drawing using this ', '4 days ago'), ('The height thing works, till you want to draw a character that’s bending over or rolling or something', '6 days ago'), ("Also, don't forget that generally (not always), women have their waists higher and wider, while men have their shoulders wider and their waists lower", '5 days ago'), ('That handwritten "pelvis" looked awfully similar to a different body part...', '4 days ago'), ('In my head i totally can do it…', '5 days ago'), ('How am I suppose to use it in perspective?', '1 day ago'), ('This is akin to Spongebob\'s "how to draw a face" tutorial for me... HOW DID YOU DREW PERFECT BOXES!!?? xd', '3 days ago'), ('Ive never been able to get used to boxes to make the figure.', '5 days ago'), ('There shouldve been a vine boom sound effect when momo showed up', '5 days ago'), ('Do you recommend a beginner uses this method or do they have to go through the classic route of learning anatomy first before using shortcut methods ?', '4 days ago'), ('How do i not forget how to do this when i am drawing and not practicing... Like do i just pretend I am practicing and not drawing???', '5 days ago'), ('Was that sneesnaw?', '2 days ago'), ('Except if it is a transformer, then the legs will be like ⅔ of it', '3 days ago'), ("I would kill to be able to draw a box in perspective, I can't draw in perspective even if I use horizon lines, and lines and more lines and perspective points and points and more points", '3 days ago (edited)'), ('Bro EVERY SINGLE SHORT/TIKTOK, he has some pics', '5 days ago'), ('My issue is mainly neck sometimes it looks too long and sometimes too short I would like to properly know a good distance for it', '5 days ago'), ("Boxes... it's always boxes", '4 days ago'), ('I think you fell in love with kowase ', '5 days ago'), ('Lets hope I dont fail this online art school and end up gaining political power to disrupt world peace for gaining even more power', '4 days ago'), ('Tusen takk dette kommer å være en stor hjelp', '4 days ago'), ('Pretty sure the torso should be smaller, the legs longer, the bust bigger, and that thick thighs save lives but good video', '5 days ago'), ('Send this to oda', '2 days ago'), ('How do we consider proportion when drawing in perspective like the ( oh yikes one)', '5 days ago'), ('Why did I read Pelvis as…', '1 day ago'), ('DANDADAN!!!!!!!!!!!!', '5 days ago'), ('use 3D', '1 day ago'), ("Its a great job/hobby to pursue, but I really don't get how people get the motivation/discipline to go through all these rules and stuff? I'd just get really frustrated and dip when seeing what he does already.", '4 days ago'), ('All you had to do was follow the damn traina', '4 days ago'), ('"draw boxes"\nCan i just throw boxes or a posing doll into blender and use that instead or is someone going to crucify me for this', '5 days ago'), ("Warning don't depend on this method u mught not improve using this", '2 days ago'), ('MOM I SWEAR IM WATCHING THIS TO LEARN PROPORTIONS', '5 days ago'), ('dandadan lady whose name i can NOT remember!!!', '3 days ago'), ('easy to remember eh? I already forgot xd', '5 days ago'), ('LUCY NOOOOOOO', '5 days ago'), ('If someone could help out and let me know what’s r he pelvis to torso to waist ratio?', '4 days ago (edited)'), ('WHY WOULD YOU DO LUCY LIKE TGAT', '2 days ago'), ('BUT WHY STOP THEEEEEERE~', '1 day ago'), ('Shesh', '2 days ago'), ('Hi', '5 days ago'), ('What is a man?\n\nA miserable little pile of boxes!', '3 days ago'), ('Smash', '3 days ago'), ('First :D', '6 days ago')]]</t>
+          <t>[[('The audacity of assuming I can draw those perfect boxes.', '6일 전(수정됨)'), ('That’s the quickest little gem of anatomy tips I’ve ever seen…!', '6일 전'), ("When I practice I can do it, but when I'm drawing I seem to forget everything.", '6일 전'), ('Thanks Marc, I am going to start hammering this into my process, I did a thumbnail and that was a hell of a realization. You rock man, changing lives of artists everyday!', '3일 전'), ('Yep 100% box method helped me I was struggling with basic human design for years and just in 5 minutes I can finally draw human characters now I just need to learn shading', '4일 전'), ("another tip would to shape the box before drawing as boxes aren't exactly the same shape as a human body and some areas (mainly shoulders and chest) would be drawn slightly incorrectly so if you draw a sphere within the box or shave the box that would help even more to draw humans more proportional. :D", '1일 전'), ('Bro, you make it look so easy..', '5일 전'), ('It helps with training. Once you get the hang of proportions, you can get rid of your training gear and start doing it from memory or using your imagination. It also means you can easily adjust your proportions while still making it realistic.', '6일 전'), ('Sorry I was very distracted by the music in the background to comprehend this good advice. The music has made me achieve enlightenment as an artist and now no longer draw to draw but now draw to draw.', '1일 전'), ('GOD YOU LITERALLY SOLVED EVERY (AND GOD SHOULD CURSE ME IF I LIE) EVERY SINGLE PROBLEM I STRUGGLED WITH IN FEW SECONDS', '6일 전'), ('For the torso, I use a slightly stretched circle.\n\nIt works well enough for me.', '6일 전'), ('I know its hard to fit everything in these quick shorts but is there tips on how much space head/torso/hips take up in that upper half?', '6일 전'), ("This is a good method but for me personally I prefer to draw a bean shape for the torso (i learned it from Proko). I find it easier to twist and bend the torso from different angles with it and when I use the box method, my figures turn out more stiff than I'd like. It's definitely more a me problem than the method though.", '6일 전(수정됨)'), ("Woah its like I found a cheat code I've been trying to find for a long time. Thanks!", '2일 전'), ('Honestly helped me realize this is my biggest issue while drawing ', '6일 전'), ('Ooh YIKES. I can feel that in the same way', '4일 전'), ("Damn, lucy, you've been BUILDING.", '5일 전'), ('SIR, THATS A POGGERS, I NEED THIS LESSON', '3일 전'), ('This actually breaks my brain more...', '6일 전'), ('comically smol head at the beginning ', '4일 전'), ("Really good advice, yet it's like everything I learned is thrown out the window as soon as I start drawing ", '6일 전'), ("I'm always screwing up the connections between head and shoulders, basically the whole neck, and the connection between torso and hips.", '1일 전'), ('My struggle is I always make the head either too big or too small and it always throws off the 7-8 head tall thing', '3일 전'), ('As a person who draw boxes for a month, boxes are artist best friend, i swear drawing boxes iin any perspective helps you to understand anything complicated as you learn, and i recomed learning anatomy day 1, like bones and muscles, and not only drawing , first learn how bones are connected and how the muscles work and bend', '5일 전'), ('Thanks Professor Xavier', '4일 전'), ('Quite useful, but that spacing you slipped between the boxes and talked right past is a major problem for me. I keep making my torsos too long or too short and it results in completely botched drafts.\n\nHow would you recommend rectifying this?', '6일 전'), ('To imagine how much space should be in between, try considering that the boxes only represent the bone structures (spine doesn’t count) and leave the space in between according to what “feels right”.\nRemember that if you ever try to check your own body to get more accurate proportions, you should not look at it, but feel the gap with your hand from the side, not from the front.\nWhat i mean by “side” is you should feel the distance between your last rib and the top of your pelvis by putting your hand on your waist and somewhat squeezing your hand between that gap. Repeat, but for the head and torso. That method should give you a pretty good idea of the distance, although I can’t say for sure since I never used this technique; I don’t draw.', '4일 전'), ('Idk first seemed very anatomically correct ngl', '6일 전'), ('The tiny head with a huge body was funny', '2일 전'), ('Brain: "Oh I get it, easy."\nHands: "Haha!... Funny."', '3일 전'), ('thanks', '1일 전'), ('I tried this and it works pretty well but I’m bad at eyeballing this the relative size of things so I’m still pretty bad at drawing using this ', '4일 전'), ('You literally drew my palworld character ', '4일 전'), ('This is a great rule of thumb, but there’s still a few things that I can’t seem to get right. How far away from each other should the boxes be? How big/tall should the boxes be? Messing up these sizes can result in some wonky bodies.', '4일 전'), ('When i did this, my teachers said that my character had too long legs...', '1일 전'), ('Bro i love you ima watch all your videos and gets your course immediately, rn i’m following the 30 days challenges ( day 7 ) ', '6일 전'), ('Proportion is like, you know how 16:9 is your screen, no matter if the pixel is 1080p or 4k? Same thing with characters, it stays ALWAYS the same relationships between every single parts of the body. Need to check head to shoulders, hips and arms to ribcage, recheck head to ribcage, recheck hips and legs and arms etc etc.. back and forth\nBasically, the concept itself of proportion exists because of comparison, the mistake is drawing parts of something without thinking about the link to other parts', '3시간 전(수정됨)'), ('The height thing works, till you want to draw a character that’s bending over or rolling or something', '6일 전'), ("Ya know I have a weird issue when using boxes. I tend to draw the boxes with the wrong proportions.\n\nBut when I draw an actual figure on it, I use the figure to fix the boxes which in turn use the boxes fix the figures.\n\nIt's odd and time consuming. Halp.", '1시간 전'), ('In my head i totally can do it…', '6일 전'), ('That handwritten "pelvis" looked awfully similar to a different body part...', '4일 전'), ("Also, don't forget that generally (not always), women have their waists higher and wider, while men have their shoulders wider and their waists lower", '6일 전'), ('Ive never been able to get used to boxes to make the figure.', '6일 전'), ("Aren't the elbows suppose to reach the middle of the stomach?", '2일 전'), ('Nice!', '6일 전'), ('There shouldve been a vine boom sound effect when momo showed up', '6일 전'), ('Except if it is a transformer, then the legs will be like ⅔ of it', '4일 전'), ('How am I suppose to use it in perspective?', '1일 전'), ("Boxes... it's always boxes", '5일 전'), ('This is akin to Spongebob\'s "how to draw a face" tutorial for me... HOW DID YOU DREW PERFECT BOXES!!?? xd', '3일 전'), ('My issue is mainly neck sometimes it looks too long and sometimes too short I would like to properly know a good distance for it', '6일 전'), ('Tusen takk dette kommer å være en stor hjelp', '5일 전'), ('Do you recommend a beginner uses this method or do they have to go through the classic route of learning anatomy first before using shortcut methods ?', '5일 전'), ('use 3D', '2일 전'), ("I would kill to be able to draw a box in perspective, I can't draw in perspective even if I use horizon lines, and lines and more lines and perspective points and points and more points", '3일 전(수정됨)'), ('Pretty sure the torso should be smaller, the legs longer, the bust bigger, and that thick thighs save lives but good video', '6일 전'), ('Send this to oda', '2일 전'), ('Lets hope I dont fail this online art school and end up gaining political power to disrupt world peace for gaining even more power', '5일 전'), ('Why did I read Pelvis as…', '1일 전'), ('Was that sneesnaw?', '3일 전'), ('I think you fell in love with kowase ', '6일 전'), ('Bro EVERY SINGLE SHORT/TIKTOK, he has some pics', '6일 전'), ('DANDADAN!!!!!!!!!!!!', '6일 전'), ('How do i not forget how to do this when i am drawing and not practicing... Like do i just pretend I am practicing and not drawing???', '6일 전'), ('All you had to do was follow the damn traina', '5일 전'), ("Warning don't depend on this method u mught not improve using this", '3일 전'), ('MOM I SWEAR IM WATCHING THIS TO LEARN PROPORTIONS', '5일 전'), ('"draw boxes"\nCan i just throw boxes or a posing doll into blender and use that instead or is someone going to crucify me for this', '6일 전'), ("Its a great job/hobby to pursue, but I really don't get how people get the motivation/discipline to go through all these rules and stuff? I'd just get really frustrated and dip when seeing what he does already.", '5일 전'), ('easy to remember eh? I already forgot xd', '6일 전'), ('How do we consider proportion when drawing in perspective like the ( oh yikes one)', '6일 전'), ('BUT WHY STOP THEEEEEERE~', '2일 전'), ('LUCY NOOOOOOO', '6일 전'), ('dandadan lady whose name i can NOT remember!!!', '3일 전'), ('WHY WOULD YOU DO LUCY LIKE TGAT', '3일 전'), ('If someone could help out and let me know what’s r he pelvis to torso to waist ratio?', '5일 전(수정됨)'), ('Shesh', '3일 전'), ('Hi', '6일 전'), ('What is a man?\n\nA miserable little pile of boxes!', '4일 전'), ('Smash', '3일 전'), ('First :D', '6일 전')]]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" s="2" t="n">
         <v>45589.90590802083</v>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0:00
+what most artists struggle with when
+0:01
+drawing characters are proportions oh
+0:04
+yikes so how do you get great
+0:05
+proportions every time use the box
+0:08
+method for the average character the
+0:09
+legs will make up half the height of the
+0:11
+character so we can start with the full
+0:12
+height and cut it in half in this
+0:14
+section we'll have the head the Torso
+0:16
+and the pelvis boxes with the Torso box
+0:18
+slightly taller than the other two we
+0:20
+can even split the Torso box in half and
+0:22
+that's where the line marking the chest
+0:24
+muscle will be what's nice with boxes is
+0:25
+that there are some of the easiest
+0:27
+things to draw in perspective next let's
+0:29
+add the limbs by starting with circles
+0:30
+for each of the joints shoulders elbows
+0:33
+wrists and you can see how each lines up
+0:35
+nicely with the top and bottom of these
+0:37
+boxes so it's easy to remember for the
+0:39
+legs the hip joints will start on the
+0:41
+same level as the wrists the knees will
+0:43
+be roughly at the halfway point and all
+0:46
+the way down we'll have the ankle and
+0:47
+just like that we have good human
+0:49
+proportions now all we have to do is
+0:51
+connect the dots to get a basic
+0:52
+mannequin that we could then draw over
+0:54
+and use as reference for the final
+0:56
+drawing simple yet effective the box
+0:58
+method helps because</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -572,13 +645,65 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[[(None, None)]]</t>
+          <t>[[('Love to see this side of manny and little manny bonding 🫶🫶🫶 sending positive thoughts and prayers ', '2개월 전'), ('He’s so adorable &amp; intelligent ️ it’s like he waited for the camera to focus on him to say “Hey guys” 🥹 such a beautiful soul i love y’all sm, que mi Diosito siempre los bendiga!!', '1개월 전'), ('You’re such a sweet patient dad with him ', '1개월 전'), ('It makes me so sad that not everyone has a good experience with ABA. I am an RBT currently on the path to becoming a BCBA. I’m also a mom &amp; aunt to neurodivergent children. I see how bad people can be when they are just in it for the money or just as another job. If you really don’t love it, it shows. You guys are doing amazing! Sending blessings. I love to see this content, it’s very raw. Thank you! Would love to see your must have items you guys use with many. Also, sensory friendly places etc.', '2개월 전'), ('My best friend told me that Jenny is her aunt, (Geraldine Merino)', '2일 전'), ("Awww poor manny ! Good luck lil dude! And I'm here for the switch up! Saludos  from AZ", '2개월 전'), ('What clinic do you go to?? In Tijuana \nCan you share information please?  I want to get them', '1개월 전'), ('Great video!', '2개월 전'), ('Wear in Tijuana do you get them?? Please share name or address!! Please I been wanting them for soo long!!', '1개월 전'), ('Loved it', '2개월 전'), ('Hey I work for an amazing clinic in Arizona. We do stem cells… I do I have question. Do you know where they get their stem cells come? Not all are legit. I’m from Cali too and I can tell you that we have the best of the best. List of people lie and put  stuff that’s not really good. Hit me up. You can get stem cells from different sources but not all are good.', '2개월 전'), ('Hi can you said hello in Spanish', '2주 전')]]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" s="2" t="n">
         <v>45589.90590802083</v>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0:00
+what's up YouTube Welcome Back to the
+0:02
+channel today's video is going to be a
+0:04
+little bit different as you can see it's
+0:05
+only me and Manny I'm taking Manny to
+0:07
+inada for his stem cells but yeah come
+0:09
+along with us Papa say hi
+0:13
+guys hi guys a little history about me
+0:16
+I'm I'm I'm originally from California
+0:19
+uh born and raised here I've been taking
+0:21
+stem cells for about 4 years now mainly
+0:24
+for the uh for just you know just to
+0:27
+stay young and just to just just to stay
+0:30
+feeling good you know because um you
+0:33
+know as as as you get older your body is
+0:35
+just not the same
+0:37
+[Music]
+0:40
+anymore so Manny just had his consult
+0:42
+right now with the doctor uh they're
+0:44
+going to switch some things around this
+0:45
+is going to be his fifth injection so uh
+0:50
+he's about to get it right now I think
+0:52
+he's thinking about it Papa what are you
+0:54
+thinking
+0:54
+about thinking about it</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -615,13 +740,53 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[[(None, None)]]</t>
+          <t>[[('Very very very very very very very very very very very nice Bhai Jan ', '6일 전'), ('How to download', '5일 전')]]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" s="2" t="n">
         <v>45589.90590802083</v>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0:00
+बैर मुल्क छुटियां गुजारना एक ऑसम
+0:02
+एक्सपीरियंस हो सकता है किसी चाहने वाले
+0:04
+के साथ महंगा डिनर करना बहुत अमेजिंग लगता
+0:07
+है पता है क्यों क्योंकि यह सब आपको बहुत
+0:09
+हैप्पीनेस देता है लेकिन कभी वोह भी ट्राई
+0:12
+कीजिएगा जो बताने जा रहा हूं कभी भूख के
+0:14
+मारे बच्चों के लिए खाना अरेंज करके
+0:17
+देखिएगा कभी एक या दो बच्चों की दीनी
+0:20
+तालीम का बंदोबस्त करके देखिएगा या फिर
+0:22
+किसी एक बच्चे को पूरे साल के लिए स्पंस
+0:25
+करके देखिएगा यह सिर्फ आपको खुशी नहीं
+0:27
+देगा बल्कि आपको मौका देगा उनके को छूने
+0:30
+का फखर के साथ मुस्कुराने का यही नहीं यह
+0:34
+छोटी सी नेकी आपको एक ऐसे एहसास से मिलवा
+0:36
+जाएगी जिसे आप जिंदगी भर याद रखेंगे तो
+0:39
+सोचे नहीं हाथ बढ़ाएं दावत इस्लामी लीथन
+0:42
+2024 में डोनेट
+0:45
+करें अल्लाह अल्लाह अल्लाह अल्लाह</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -654,13 +819,41 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[[(None, None)]]</t>
+          <t>[[(' nice, in Colombia many many nice restaurants allow your furry friends to come in (subject to size) nice one', '3주 전(수정됨)'), ('Sounds like a nightmare for service dogs', '3주 전')]]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" s="2" t="n">
         <v>45589.90590802083</v>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0:00
+I lived abroad outside the US for many
+0:02
+years and I never saw a supermarket
+0:04
+where you could bring your dog so now
+0:06
+I'm back in the US and not every
+0:09
+Supermarket is like this but this one is
+0:11
+a Whole Foods in Miami South Beach and
+0:14
+so many people bring their dog which is
+0:17
+really interesting it can be a nice way
+0:21
+to integrate your dog into everyday life
+0:24
+but the funny thing is there's actually
+0:25
+a sign that says dogs aren't allowed so
+0:27
+what do you think</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -693,13 +886,71 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[[(None, None)]]</t>
+          <t>[[("I'm pretty sure the Catholic Church has a no-mustache saint policy.", '2개월 전'), ('Regarding saint patrons of criminals, I heard once Saint Nicholas was seen as patron of thieves. There was something also about the Good Thief, you know that guy who was crucified next to Jesus...', '2개월 전'), ('No major christian figure has ever been regarded as a criminal in the eyes of the law... totally never...', '2개월 전'), ("yeah that's Freddie Mercury", '2개월 전'), ('I remember seeing this Saint from the intro to Narcos: Mexico and kinda wanting to know who this character is/was.', '2개월 전'), ('Your shorts are fire', '2개월 전'), ("I'd like your take on José Gregorio Hernández from Venezuela.", '2개월 전'), ('Folk religion is so cool and beautiful! I’m a pagan and I consider my religion a folk religion.', '6일 전(수정됨)'), ('Was cleaning out a house here in the usa. In one of the rooms was a shrine of that dude. Took the statue to a pawn shop and they refused to take it or even let it in the shop...', '2개월 전'), ('If Teresa can be considered a saint then everyone can', '2개월 전'), ('Beautiful hero workship', '2개월 전'), ("I'm first  pretty sure I first heard of this while watching Breaking Bad.", '2개월 전'), ('for what you say and the kind of rituals thats more like a kind of santeria than catholic practices.', '2개월 전'), ('I visited San Simon Shrine in Chichicastenango, Guatemala. Very similar kind of guy… kinda’ creepy, kinda’ cool. He must have protected me it was 1984…', '2개월 전'), ('Heresy in the highest regard', '2개월 전'), ('Ya bro I know that guy he’s on my hot sauce bottle', '2개월 전'), ("He ain't no robin hood but he sure is robbing the hood", '2개월 전'), ("There's a Novela called Malverde. I imagine it's about him. I've never seen it.", '2개월 전'), ("can you discuss abt Rizal, the national hero of Philippines. He's sometimes seen by folk christians as a saint but also Jesus Christ himself", '2개월 전'), ('How is it that so many channels handling religion or evolution draw a plethora of reactionaries to their Shorts even when the full videos usually come with some interesting discussion?', '2개월 전(수정됨)'), ('latín american catholicism and how it incorporates indigenous elements into its practice is so uniquely beautiful', '2개월 전'), ('They certainly like their idols', '2개월 전'), ('That’s John Waters.', '2개월 전'), ('Looks like Saddam Hussein plus Escobar imo', '2개월 전'), ("Saint Patrick isn't recognized by the church either", '2개월 전'), ("As a LEO in Texas, I have encountered and arrested many people carrying tributes to him. So, he's obviously not doing a good job intervening for them.\n\nA more common one, though, is Santa Muerte. Can you do a video on that?", '2개월 전(수정됨)'), ('DEAD Jesus Malverde “Joshua* of the Bad-Green” now the bad green here is money but I can’t help but make that herbal leap\n\n*Yehoshua being the transliteration etc etc you guys all know this stuff we’ve been doing this long enough.', '1개월 전(수정됨)'), ('That’s benny', '2개월 전'), ('Worshipping saints is wierd enough. This is definitely some Santeria', '2개월 전'), ('Really, Malverde? Evil green? That’s what you name a saint and you still call him a saint? The word evil is literally in the name, may as well have St. Juan Diablorosa and St. Pablo Asesinegro', '2개월 전'), ('Hey-soos gonna Heysoous', '2개월 전'), ('Have you heard of Santa Muerte?', '2개월 전'), ('El chapo a good Christian', '2개월 전'), ('Idol worship', '2개월 전'), ('Eh please Señor Sente eh no DEA please', '2개월 전(수정됨)'), ('Is this even official?', '2개월 전'), ('Grande Malverde', '2개월 전'), ('Viva culiacan sinaloa', '2개월 전'), ("Taking into account that his “miracles” help kidnappers, murderers, r_pists and drug addicts, I would say that there's nothing saintly about him, rather it would be some type of demonic entity.", '2개월 전'), ('Eeh Senor Sente no DEA please', '1개월 전'), ('How is this not idolatry?', '2개월 전'), ('Just clarifying what a Catholic Saint is for everyone: it’s someone who’s been confirmed to have gone to heaven. If your great grandfather went to heaven, he’s a Saint. \n\nEvery single person who has gone to heaven is a Saint, but for obvious reasons it is very, very difficult to confirm whether they have while on earth. The named Saints are those people who, through research, discernment, and the careful study of their life by the Church, have been determined to have definitely gone to heaven after they died. \n\nJesús Malverde isn’t an official Saint because he was an outlaw specifically or because he’s revered by criminals or anything like that. It’s because his morally grey life makes it impossible to confirm he ended up in heaven.', '2개월 전(수정됨)'), ('Kind of like the gaucho gil  or San la muerteIn Argentina', '2개월 전'), ('incredibly pagan', '2개월 전'), ('Idolatry', '2개월 전'), ('Fake saint lol', '2개월 전'), ('Nice hairdo vs your usual', '2개월 전'), ("For Catholics: The folk saints like this are not recognized by the Church and therefore cannot be relied upon as intercessors. If the Church hasn't said it, and it does not bear any fruit, it is not permitted to venerate them.", '2개월 전'), ('Helping the poor doesn’t excuse you for helping drug cartels hippy the drugs that were sold destroyed 1000’s of more lives then he helped', '2개월 전'), ("Remeber when the Bible said we weren't supposed to worship idols. The catholic church dosent lol", '2개월 전'), ('Hare Krishna', '2개월 전'), ('Disgusting graven images and idolatry', '1개월 전'), ('Wtf...', '2개월 전'), ('Faux-saint', '2개월 전'), ('Give us a genuinely comprehensible reasoning on why not to revere this person\n"Acknowledging that is actually reductive️"', '2개월 전'), ('Idolatry. No "saint" should be praised like this', '2개월 전'), ('Hahahaha that’s tradition I guess', '2개월 전'), ('Idols are bad', '2개월 전'), ('Though shalt not have any other gods before me. \n\nThe Bible says that only God the Father, Son &amp; Holy Spirit are to be prayed to because they are one. \n\nPraying to Mary or to the saints is stupid at best and down right idolatry at worst. \n\nThese things the Catholic Church has taught has no basis in the Bible, remember Romans 3:4 declares “let God be true, but every man a liar!” \n\nIf what someone is telling you doesn’t line up with the word of God, then don’t do it.', '2개월 전'), ('Yeah hpu have no idea what you are talkomg about', '2개월 전'), ('The question that should be asked: who is the old god whose this mask is now?', '2개월 전'), ('Catholics try not to commit idolatry challenge: impossible', '2개월 전'), ('Devil worship is devil worship.', '2개월 전'), ('Can we stop saying “late 1800s” to mean late 19th century? Late 1800s would mean 1807-ish, when Malverde wasn’t born until 1870.', '2개월 전'), ("I'm a fan of la Santa muerte and various black Madonnas. Yeah the church hella racist", '2개월 전'), ('This is a completely different religion than Christianity let alone Roman catholicism.', '2개월 전'), ('Bring back the spanish inquisition', '2개월 전'), ('Jesus lives! ️ and is God  Christ ️ and King ', '2개월 전'), ('This is idolic worship, it has nothing to do with the bible, focus on Jesus, don’t get confused and exonerate saints, these are just people who have died. Jesus is the living saviour exonerate him. Believe on him and thou shalt be saved from an eternity of hell fire.', '2개월 전'), ("I don't want to be offensive but what's up with Mexico and criminal folk saints? There's also Santa Muerte.", '2개월 전'), ('No American cares dude. ', '2개월 전'), ('Please consider captions 🫶 Thanks for all your work!', '2개월 전'), ('Idolatry', '2개월 전'), ('Idolatry', '1개월 전')]]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" s="2" t="n">
         <v>45589.90590802083</v>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0:00
+this Mustachio fellow is Jesus mde a
+0:03
+popular Saint in Mexico but he's not
+0:05
+officially recognized by the Catholic
+0:06
+Church he's what Scholars call a folk
+0:09
+Saint you can find informal shrines and
+0:11
+chapels to him across Mexico and the US
+0:13
+featuring his distinctive statue where
+0:15
+devotees will offer candles flowers and
+0:18
+sometimes alcohol or tobacco along with
+0:20
+their prayers but he also has a bad
+0:22
+reputation as a narco Saint revered by
+0:25
+drug cartel members according to Legend
+0:27
+Jesus malde was a Robin Hood likee
+0:29
+figure F back in the late 1800s as an
+0:32
+outlaw he was a morally gray figure so
+0:35
+some cartel members venerate him as a
+0:37
+saint that not only overlooks criminal
+0:39
+activities but might even help you break
+0:41
+the law but calling him a narco Saint is
+0:43
+reductive thousands and thousands of
+0:45
+people who are not involved in the drug
+0:47
+trade at all rever him as a saint who
+0:49
+helps the poor and the oppressed the
+0:51
+myth of malverde as a heroic Outlaw
+0:53
+standing up against the rich appeals to
+0:55
+all sorts of people especially people
+0:57
+seeking his help to overcome hardship</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -732,13 +983,63 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[[(None, None)]]</t>
+          <t>[[('السلام عليكم ورحمة الله وبركاته \nجزاك الله خيرا على هذا العلم', '7일 전'), ('I remember this topic. \nI was teaching a medical technician on how to do ECG by having her do one me, and the machine gives a STEMI warning. Just J point sloping, but I did have a delta waves. Thought it was really cool.', '7일 전'), ('Hi medicosis ', '7일 전'), ('Hello.', '7일 전')]]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" s="2" t="n">
         <v>45589.90590802083</v>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0:00
+Cardiology in 1 minute with meosis
+0:02
+perfectionalis today's topic is Wolf
+0:04
+Parkinson White syndrome or wpw which is
+0:08
+considered an atrio ventricular re-entry
+0:11
+teoc cardia which is a subtype of
+0:13
+supraventricular teoc cardia back to
+0:16
+normal cardiac conduction we start from
+0:18
+the Sino atrial node which supplies both
+0:21
+Atria then we give it to the atrio
+0:24
+ventricular node which will supply the
+0:26
+bundle of His right bundle branch left
+0:28
+bundle branch to supply the ventricles
+0:31
+what happens in Wolf Parkinson White
+0:33
+syndrome is that we have a faster
+0:35
+pathway towards the ventricle by passing
+0:38
+The Av node this abnormal pathway is
+0:40
+faster because it's faster it gives me
+0:43
+preexcitation and an earlier upward
+0:46
+deflection known as the Delta wave this
+0:49
+shortens the PR interval but widens the
+0:52
+QRS complex St and t-wave changes are
+0:55
+not uncommon watch the full video in my
+0:58
+Cardiology playlist</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -775,7 +1076,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[[(None, None)]]</t>
+          <t>[[('兔子非常嗜甜，個性也特好', '9개월 전'), ('這個循環很是巧妙', '9개월 전'), ('貓個性不差啊！他們只是在作自己。', '9개월 전'), ('沒點心吃我真的也會比較機掰', '9개월 전'), ('不過99.9%寵物的問題都來自於飼主', '2개월 전'), ('動物都是美的', '6개월 전'), ('原來是因為太苦了(#', '9개월 전'), ('可是我超愛吃甜的。。。不過我不養貓', '9개월 전'), ('原來他們吃不到甜味啊', '9개월 전'), ('所有ㄧ切遇到的人事地物也是 包括你', '6개월 전'), ('喵', '3개월 전'), ('', '9개월 전')]]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -786,6 +1087,7 @@
       <c r="K8" s="2" t="n">
         <v>45589.90590802083</v>
       </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -826,7 +1128,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[[(None, None)]]</t>
+          <t>[[('It is purpose that created us, that binds us, that drives us', '5일 전'), ('Take a day off! ', '2일 전'), ('World peace win win', '5일 전'), ('Full video link?', '5일 전'), ('To write a song that would save the soul of everyone who heard it', '5일 전'), ('Greatest badminton player of all time.', '5일 전'), ("I would walk into a convenience store and randomly choose the winning Powerball numbers and I'm buying 20 tickets with those exact same numbers, that way even if I do have to split the jackpot with another winner its not an even split.", '5일 전'), ('Become the sad worm god of Arrakis', '4일 전'), ('Make Money and live With FREEDOM and Responsibilities.', '5일 전(수정됨)')]]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -836,6 +1138,30 @@
       </c>
       <c r="K9" s="2" t="n">
         <v>45589.90590802083</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0:00
+what one great thing would you dare to
+0:02
+dream if you knew you could not fail if
+0:05
+you knew beyond the shadow of a doubt
+0:06
+that you could not fail what one thing
+0:08
+would you set as a goal for yourself
+0:10
+because sometimes answering that
+0:11
+question will tell you the one thing
+0:13
+that you've been put on this Earth to
+0:15
+accomplish
+0:20
+[Music]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -877,7 +1203,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[[(None, None)]]</t>
+          <t>[[('You know you’re a good interviewer when you can get somebody reevaluating reasons behind their own creative decisions. RIP James Lipton.', '1년 전(수정됨)'), ('James Lipton always asked the most thoughtful and insightful questions of his guests. ', '1년 전'), ("For context, the interviewer (James Lipton) is referencing the final scene in Spielberg's movie Close Encounters of the Third Kind (1977). The shots of Spielberg's parents are from his movie The Fablemans (2022) which is based off his own life.", '1년 전(수정됨)'), ('I’ve been listening to this pod for like 6 years. This is a top 5 all timer episode.', '1년 전'), ('Thank you very much for the thoughtful editing! I will show this video to my friends after they watch close encounters, it will blow their minds.', '1년 전'), ('I love this channel so goddamn much', '1년 전'), ("A good interviewer's questions reveal things to the audience, a great interviewer's questions reveal things to the interviewee", '7개월 전'), ('In college I kept solving math problems on my sleep. I guess was stressed about my STEM classes and I kept doing chemistry and math in my sleep! And it became a nightmare. I talked to my mom once about it and she said YOUR DAD, HE SOLVES THINGS IN HIS DREAMS ALL THE TIME. \n\nI’m a soon to be father to a little boy. I hope he too solves things in his dreams. Can’t wait for that talk. Idk. It’s a legacy we pass off. ', '1년 전(수정됨)'), ('Technology communication via music tangentially reminded me of Electric Dreams. Short Circuit, eat your heart out.', '1년 전(수정됨)'), ('The 3  little 1’s \nI love how there little guitars sound like real tone but, out of tune slightly it IS MAGNIFICENT \n  ️', '11개월 전'), ('Freud take a sip of tea camly', '1년 전'), ('1:30:33 ', '1년 전'), ('A really good question indeed! When is this interview from?', '1년 전'), ('Hello Steven:) greetings from Poland', '1년 전'), ('', '1년 전'), ('ハリウッドの社長に感謝します', '1년 전'), ('This movie, with all the pacing issues it has, has always fascinated me.', '1년 전'), ('ハーバードの頭の良さはどこか東京大学の医者の先生方に似ています', '1년 전'), ('And the questions they ask these days', '1년 전'), ('I promise I’ve created an event that innocent which corrects a dreaded clip of your movie \nnever before viewed\nIt’s not even in the deleted 30th version \n you will like \nUntil Heaven brings us together I’ll save it just for you Steven !!!! ', '11개월 전'), ("Awwww... I still don't like the movie but it really is cute how a writer's personal life can seep into stories in way they don't even notice.", '1년 전'), ('This could have been posted as a normal video that happens to be short.', '1년 전'), ("this man is a LIAR. \nClose Encounters was a mirror film. \nDerived from...'2001: A Space Odyssey'.", '1년 전')]]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -887,6 +1213,36 @@
       </c>
       <c r="K10" s="2" t="n">
         <v>45589.90590802083</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0:00
+your father was a computer scientist
+0:02
+your mother was a musician when the
+0:05
+spaceship lands how do they communicate
+0:07
+that's a very good question I like that
+0:11
+you've answered the question they make
+0:13
+music on their computers and they are
+0:15
+able to speak to each other
+0:17
+[Music]
+0:25
+and you see I'd love to say you know I
+0:27
+intended that and I realized that was my
+0:29
+mother and father but not until this
+0:30
+moment
+0:31
+[Applause]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/YouTube_Shorts_Automation/youtube_shorts_crawling/scraperAPI/loaded_db_100.xlsx
+++ b/YouTube_Shorts_Automation/youtube_shorts_crawling/scraperAPI/loaded_db_100.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[[('The audacity of assuming I can draw those perfect boxes.', '6일 전(수정됨)'), ('That’s the quickest little gem of anatomy tips I’ve ever seen…!', '6일 전'), ("When I practice I can do it, but when I'm drawing I seem to forget everything.", '6일 전'), ('Thanks Marc, I am going to start hammering this into my process, I did a thumbnail and that was a hell of a realization. You rock man, changing lives of artists everyday!', '3일 전'), ('Yep 100% box method helped me I was struggling with basic human design for years and just in 5 minutes I can finally draw human characters now I just need to learn shading', '4일 전'), ("another tip would to shape the box before drawing as boxes aren't exactly the same shape as a human body and some areas (mainly shoulders and chest) would be drawn slightly incorrectly so if you draw a sphere within the box or shave the box that would help even more to draw humans more proportional. :D", '1일 전'), ('Bro, you make it look so easy..', '5일 전'), ('It helps with training. Once you get the hang of proportions, you can get rid of your training gear and start doing it from memory or using your imagination. It also means you can easily adjust your proportions while still making it realistic.', '6일 전'), ('Sorry I was very distracted by the music in the background to comprehend this good advice. The music has made me achieve enlightenment as an artist and now no longer draw to draw but now draw to draw.', '1일 전'), ('GOD YOU LITERALLY SOLVED EVERY (AND GOD SHOULD CURSE ME IF I LIE) EVERY SINGLE PROBLEM I STRUGGLED WITH IN FEW SECONDS', '6일 전'), ('For the torso, I use a slightly stretched circle.\n\nIt works well enough for me.', '6일 전'), ('I know its hard to fit everything in these quick shorts but is there tips on how much space head/torso/hips take up in that upper half?', '6일 전'), ("This is a good method but for me personally I prefer to draw a bean shape for the torso (i learned it from Proko). I find it easier to twist and bend the torso from different angles with it and when I use the box method, my figures turn out more stiff than I'd like. It's definitely more a me problem than the method though.", '6일 전(수정됨)'), ("Woah its like I found a cheat code I've been trying to find for a long time. Thanks!", '2일 전'), ('Honestly helped me realize this is my biggest issue while drawing ', '6일 전'), ('Ooh YIKES. I can feel that in the same way', '4일 전'), ("Damn, lucy, you've been BUILDING.", '5일 전'), ('SIR, THATS A POGGERS, I NEED THIS LESSON', '3일 전'), ('This actually breaks my brain more...', '6일 전'), ('comically smol head at the beginning ', '4일 전'), ("Really good advice, yet it's like everything I learned is thrown out the window as soon as I start drawing ", '6일 전'), ("I'm always screwing up the connections between head and shoulders, basically the whole neck, and the connection between torso and hips.", '1일 전'), ('My struggle is I always make the head either too big or too small and it always throws off the 7-8 head tall thing', '3일 전'), ('As a person who draw boxes for a month, boxes are artist best friend, i swear drawing boxes iin any perspective helps you to understand anything complicated as you learn, and i recomed learning anatomy day 1, like bones and muscles, and not only drawing , first learn how bones are connected and how the muscles work and bend', '5일 전'), ('Thanks Professor Xavier', '4일 전'), ('Quite useful, but that spacing you slipped between the boxes and talked right past is a major problem for me. I keep making my torsos too long or too short and it results in completely botched drafts.\n\nHow would you recommend rectifying this?', '6일 전'), ('To imagine how much space should be in between, try considering that the boxes only represent the bone structures (spine doesn’t count) and leave the space in between according to what “feels right”.\nRemember that if you ever try to check your own body to get more accurate proportions, you should not look at it, but feel the gap with your hand from the side, not from the front.\nWhat i mean by “side” is you should feel the distance between your last rib and the top of your pelvis by putting your hand on your waist and somewhat squeezing your hand between that gap. Repeat, but for the head and torso. That method should give you a pretty good idea of the distance, although I can’t say for sure since I never used this technique; I don’t draw.', '4일 전'), ('Idk first seemed very anatomically correct ngl', '6일 전'), ('The tiny head with a huge body was funny', '2일 전'), ('Brain: "Oh I get it, easy."\nHands: "Haha!... Funny."', '3일 전'), ('thanks', '1일 전'), ('I tried this and it works pretty well but I’m bad at eyeballing this the relative size of things so I’m still pretty bad at drawing using this ', '4일 전'), ('You literally drew my palworld character ', '4일 전'), ('This is a great rule of thumb, but there’s still a few things that I can’t seem to get right. How far away from each other should the boxes be? How big/tall should the boxes be? Messing up these sizes can result in some wonky bodies.', '4일 전'), ('When i did this, my teachers said that my character had too long legs...', '1일 전'), ('Bro i love you ima watch all your videos and gets your course immediately, rn i’m following the 30 days challenges ( day 7 ) ', '6일 전'), ('Proportion is like, you know how 16:9 is your screen, no matter if the pixel is 1080p or 4k? Same thing with characters, it stays ALWAYS the same relationships between every single parts of the body. Need to check head to shoulders, hips and arms to ribcage, recheck head to ribcage, recheck hips and legs and arms etc etc.. back and forth\nBasically, the concept itself of proportion exists because of comparison, the mistake is drawing parts of something without thinking about the link to other parts', '3시간 전(수정됨)'), ('The height thing works, till you want to draw a character that’s bending over or rolling or something', '6일 전'), ("Ya know I have a weird issue when using boxes. I tend to draw the boxes with the wrong proportions.\n\nBut when I draw an actual figure on it, I use the figure to fix the boxes which in turn use the boxes fix the figures.\n\nIt's odd and time consuming. Halp.", '1시간 전'), ('In my head i totally can do it…', '6일 전'), ('That handwritten "pelvis" looked awfully similar to a different body part...', '4일 전'), ("Also, don't forget that generally (not always), women have their waists higher and wider, while men have their shoulders wider and their waists lower", '6일 전'), ('Ive never been able to get used to boxes to make the figure.', '6일 전'), ("Aren't the elbows suppose to reach the middle of the stomach?", '2일 전'), ('Nice!', '6일 전'), ('There shouldve been a vine boom sound effect when momo showed up', '6일 전'), ('Except if it is a transformer, then the legs will be like ⅔ of it', '4일 전'), ('How am I suppose to use it in perspective?', '1일 전'), ("Boxes... it's always boxes", '5일 전'), ('This is akin to Spongebob\'s "how to draw a face" tutorial for me... HOW DID YOU DREW PERFECT BOXES!!?? xd', '3일 전'), ('My issue is mainly neck sometimes it looks too long and sometimes too short I would like to properly know a good distance for it', '6일 전'), ('Tusen takk dette kommer å være en stor hjelp', '5일 전'), ('Do you recommend a beginner uses this method or do they have to go through the classic route of learning anatomy first before using shortcut methods ?', '5일 전'), ('use 3D', '2일 전'), ("I would kill to be able to draw a box in perspective, I can't draw in perspective even if I use horizon lines, and lines and more lines and perspective points and points and more points", '3일 전(수정됨)'), ('Pretty sure the torso should be smaller, the legs longer, the bust bigger, and that thick thighs save lives but good video', '6일 전'), ('Send this to oda', '2일 전'), ('Lets hope I dont fail this online art school and end up gaining political power to disrupt world peace for gaining even more power', '5일 전'), ('Why did I read Pelvis as…', '1일 전'), ('Was that sneesnaw?', '3일 전'), ('I think you fell in love with kowase ', '6일 전'), ('Bro EVERY SINGLE SHORT/TIKTOK, he has some pics', '6일 전'), ('DANDADAN!!!!!!!!!!!!', '6일 전'), ('How do i not forget how to do this when i am drawing and not practicing... Like do i just pretend I am practicing and not drawing???', '6일 전'), ('All you had to do was follow the damn traina', '5일 전'), ("Warning don't depend on this method u mught not improve using this", '3일 전'), ('MOM I SWEAR IM WATCHING THIS TO LEARN PROPORTIONS', '5일 전'), ('"draw boxes"\nCan i just throw boxes or a posing doll into blender and use that instead or is someone going to crucify me for this', '6일 전'), ("Its a great job/hobby to pursue, but I really don't get how people get the motivation/discipline to go through all these rules and stuff? I'd just get really frustrated and dip when seeing what he does already.", '5일 전'), ('easy to remember eh? I already forgot xd', '6일 전'), ('How do we consider proportion when drawing in perspective like the ( oh yikes one)', '6일 전'), ('BUT WHY STOP THEEEEEERE~', '2일 전'), ('LUCY NOOOOOOO', '6일 전'), ('dandadan lady whose name i can NOT remember!!!', '3일 전'), ('WHY WOULD YOU DO LUCY LIKE TGAT', '3일 전'), ('If someone could help out and let me know what’s r he pelvis to torso to waist ratio?', '5일 전(수정됨)'), ('Shesh', '3일 전'), ('Hi', '6일 전'), ('What is a man?\n\nA miserable little pile of boxes!', '4일 전'), ('Smash', '3일 전'), ('First :D', '6일 전')]]</t>
+          <t>[[('The audacity of assuming I can draw those perfect boxes.', '13일 전(수정됨)'), ('That’s the quickest little gem of anatomy tips I’ve ever seen…!', '13일 전'), ("When I practice I can do it, but when I'm drawing I seem to forget everything.", '13일 전'), ('For the torso, I use a slightly stretched circle.\n\nIt works well enough for me.', '13일 전'), ("another tip would to shape the box before drawing as boxes aren't exactly the same shape as a human body and some areas (mainly shoulders and chest) would be drawn slightly incorrectly so if you draw a sphere within the box or shave the box that would help even more to draw humans more proportional. :D", '8일 전'), ("Damn, lucy, you've been BUILDING.", '12일 전'), ('Sorry I was very distracted by the music in the background to comprehend this good advice. The music has made me achieve enlightenment as an artist and now no longer draw to draw but now draw to draw.', '8일 전'), ('Thanks Marc, I am going to start hammering this into my process, I did a thumbnail and that was a hell of a realization. You rock man, changing lives of artists everyday!', '10일 전'), ('Yep 100% box method helped me I was struggling with basic human design for years and just in 5 minutes I can finally draw human characters now I just need to learn shading', '11일 전'), ("Woah its like I found a cheat code I've been trying to find for a long time. Thanks!", '9일 전'), ('this is really coming at the right time! thank you', '1일 전'), ('Ooh YIKES. I can feel that in the same way', '11일 전'), ("I've watched so many video tips, tutorials, videos of books, lets draws.. artists etc.. and even read in andrew loomis books.. but that didn't help. THIS DID!! Finally I found a method that will work for Me to start with. To even get the simple shape guide on paper to start practicing. Couldn't get a stickman the right proportion even xD But this was very good video, thanks a lot! very appreciated, sensei ^^", '7시간 전'), ('And yet I still see no comment saying about the drawings presented on the video.', '5일 전'), ('Honestly helped me realize this is my biggest issue while drawing ', '13일 전'), ('SIR, THATS A POGGERS, I NEED THIS LESSON', '10일 전'), ('GOD YOU LITERALLY SOLVED EVERY (AND GOD SHOULD CURSE ME IF I LIE) EVERY SINGLE PROBLEM I STRUGGLED WITH IN FEW SECONDS', '13일 전'), ('This is a great rule of thumb, but there’s still a few things that I can’t seem to get right. How far away from each other should the boxes be? How big/tall should the boxes be? Messing up these sizes can result in some wonky bodies.', '10일 전'), ('As a person who draw boxes for a month, boxes are artist best friend, i swear drawing boxes iin any perspective helps you to understand anything complicated as you learn, and i recomed learning anatomy day 1, like bones and muscles, and not only drawing , first learn how bones are connected and how the muscles work and bend', '11일 전'), ('Bro, you make it look so easy..', '12일 전'), ("I'm always screwing up the connections between head and shoulders, basically the whole neck, and the connection between torso and hips.", '8일 전'), ('I think you should make a tutorial on drawing a woman’s chest. For some reason it always comes out inconsistent in size/height.', '6일 전'), ('Proportion is like, you know how 16:9 is your screen, no matter if the pixel is 1080p or 4k? Same thing with characters, it stays ALWAYS the same relationships between every single parts of the body. Need to check head to shoulders, hips and arms to ribcage, recheck head to ribcage, recheck hips and legs and arms etc etc.. back and forth\nBasically, the concept itself of proportion exists because of comparison, the mistake is drawing parts of something without thinking about the link to other parts', '7일 전(수정됨)'), ('I know its hard to fit everything in these quick shorts but is there tips on how much space head/torso/hips take up in that upper half?', '13일 전'), ('It helps with training. Once you get the hang of proportions, you can get rid of your training gear and start doing it from memory or using your imagination. It also means you can easily adjust your proportions while still making it realistic.', '13일 전'), ('comically smol head at the beginning ', '11일 전'), ('Thank you sir its always so hard this is good info hope can use it', '4일 전'), ("This is a good method but for me personally I prefer to draw a bean shape for the torso (i learned it from Proko). I find it easier to twist and bend the torso from different angles with it and when I use the box method, my figures turn out more stiff than I'd like. It's definitely more a me problem than the method though.", '13일 전(수정됨)'), ('Bro i love you ima watch all your videos and gets your course immediately, rn i’m following the 30 days challenges ( day 7 ) ', '12일 전'), ('Welp time to try this tomorrow', '19시간 전'), ('Thanks !!.', '5일 전'), ('Bless you', '2일 전'), ('Thanks Professor Xavier', '11일 전'), ('To imagine how much space should be in between, try considering that the boxes only represent the bone structures (spine doesn’t count) and leave the space in between according to what “feels right”.\nRemember that if you ever try to check your own body to get more accurate proportions, you should not look at it, but feel the gap with your hand from the side, not from the front.\nWhat i mean by “side” is you should feel the distance between your last rib and the top of your pelvis by putting your hand on your waist and somewhat squeezing your hand between that gap. Repeat, but for the head and torso. That method should give you a pretty good idea of the distance, although I can’t say for sure since I never used this technique; I don’t draw.', '11일 전'), ('Quite useful, but that spacing you slipped between the boxes and talked right past is a major problem for me. I keep making my torsos too long or too short and it results in completely botched drafts.\n\nHow would you recommend rectifying this?', '13일 전'), ('This actually breaks my brain more...', '13일 전'), ('My issue is mainly neck sometimes it looks too long and sometimes too short I would like to properly know a good distance for it', '12일 전'), ('Ive never been able to get used to boxes to make the figure.', '13일 전'), ('Idk first seemed very anatomically correct ngl', '13일 전'), ('The tiny head with a huge body was funny', '9일 전'), ('The height thing works, till you want to draw a character that’s bending over or rolling or something', '13일 전'), ("Really good advice, yet it's like everything I learned is thrown out the window as soon as I start drawing ", '13일 전'), ('My struggle is I always make the head either too big or too small and it always throws off the 7-8 head tall thing', '10일 전'), ('thanks', '8일 전'), ('I tried this and it works pretty well but I’m bad at eyeballing this the relative size of things so I’m still pretty bad at drawing using this ', '11일 전'), ('Brain: "Oh I get it, easy."\nHands: "Haha!... Funny."', '10일 전'), ('Tusen takk dette kommer å være en stor hjelp', '12일 전'), ('Nice!', '13일 전'), ('You literally drew my palworld character ', '11일 전'), ('When i did this, my teachers said that my character had too long legs...', '8일 전'), ('In my head i totally can do it…', '13일 전'), ("Ya know I have a weird issue when using boxes. I tend to draw the boxes with the wrong proportions.\n\nBut when I draw an actual figure on it, I use the figure to fix the boxes which in turn use the boxes fix the figures.\n\nIt's odd and time consuming. Halp.", '6일 전'), ('i forgot how to draw humans the normal way.\n\nthanks for helping me rember', '5일 전'), ('There shouldve been a vine boom sound effect when momo showed up', '13일 전'), ('10/10', '6일 전'), ("Also, don't forget that generally (not always), women have their waists higher and wider, while men have their shoulders wider and their waists lower", '13일 전'), ("Its a great job/hobby to pursue, but I really don't get how people get the motivation/discipline to go through all these rules and stuff? I'd just get really frustrated and dip when seeing what he does already.", '12일 전'), ('Do you recommend a beginner uses this method or do they have to go through the classic route of learning anatomy first before using shortcut methods ?', '12일 전'), ('"draw boxes"\nCan i just throw boxes or a posing doll into blender and use that instead or is someone going to crucify me for this', '13일 전'), ('This is akin to Spongebob\'s "how to draw a face" tutorial for me... HOW DID YOU DREW PERFECT BOXES!!?? xd', '10일 전'), ('Funny that you assume the pencil goes the direction my hand wants it to(I have zero line control)', '3일 전'), ('That handwritten "pelvis" looked awfully similar to a different body part...', '11일 전'), ("Whats Dan da Dan? It's been a long time since I've watched anime  and now Dan da Dan is everywhere", '4일 전'), ("Aren't the elbows suppose to reach the middle of the stomach?", '8일 전'), ('How am I suppose to use it in perspective?', '8일 전'), ('Except if it is a transformer, then the legs will be like ⅔ of it', '11일 전'), ('Can you explain about guy proportions?… ', '4일 전'), ("I would kill to be able to draw a box in perspective, I can't draw in perspective even if I use horizon lines, and lines and more lines and perspective points and points and more points", '10일 전(수정됨)'), ('How do we consider proportion when drawing in perspective like the ( oh yikes one)', '13일 전'), ('Ok dumb question but how do i know how big the boxes should be?', '5일 전'), ('Lets hope I dont fail this online art school and end up gaining political power to disrupt world peace for gaining even more power', '12일 전'), ('I think you fell in love with kowase ', '13일 전'), ('DANDADAN MENTIONED!?', '1일 전'), ('Bro EVERY SINGLE SHORT/TIKTOK, he has some pics', '13일 전'), ('Pretty sure the torso should be smaller, the legs longer, the bust bigger, and that thick thighs save lives but good video', '13일 전'), ("Boxes... it's always boxes", '11일 전'), ('How do i not forget how to do this when i am drawing and not practicing... Like do i just pretend I am practicing and not drawing???', '13일 전'), ('Was that sneesnaw?', '10일 전'), ('All you had to do was follow the damn traina', '11일 전'), ('Send this to oda', '9일 전'), ('Now do dwarves.', '1일 전'), ('MOM I SWEAR IM WATCHING THIS TO LEARN PROPORTIONS', '12일 전'), ('Why did I read Pelvis as…', '8일 전'), ('use 3D', '9일 전'), ('easy to remember eh? I already forgot xd', '13일 전'), ('dandadan lady whose name i can NOT remember!!!', '10일 전'), ('When you realize if you wanna draw human you gotta learn about human body anatomy first...', '3일 전'), ("Warning don't depend on this method u mught not improve using this", '10일 전'), ('DANDADAN!!!!!!!!!!!!', '13일 전'), ('BUT WHY STOP THEEEEEERE~', '8일 전'), ('If someone could help out and let me know what’s r he pelvis to torso to waist ratio?', '12일 전(수정됨)'), ('LUCY NOOOOOOO', '13일 전'), ('WHY WOULD YOU DO LUCY LIKE TGAT', '10일 전'), ('Shesh', '10일 전'), ('Hi', '13일 전'), ('What is a man?\n\nA miserable little pile of boxes!', '11일 전'), ('Smash', '10일 전'), ('hear me out', '5일 전'), ('First :D', '13일 전'), ('I recommend not using the  box method there is no things in a body that Represents a box.\nSaid by the one and only samdoesarts', '6일 전')]]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -543,70 +543,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0:00
-what most artists struggle with when
-0:01
-drawing characters are proportions oh
-0:04
-yikes so how do you get great
-0:05
-proportions every time use the box
-0:08
-method for the average character the
-0:09
-legs will make up half the height of the
-0:11
-character so we can start with the full
-0:12
-height and cut it in half in this
-0:14
-section we'll have the head the Torso
-0:16
-and the pelvis boxes with the Torso box
-0:18
-slightly taller than the other two we
-0:20
-can even split the Torso box in half and
-0:22
-that's where the line marking the chest
-0:24
-muscle will be what's nice with boxes is
-0:25
-that there are some of the easiest
-0:27
-things to draw in perspective next let's
-0:29
-add the limbs by starting with circles
-0:30
-for each of the joints shoulders elbows
-0:33
-wrists and you can see how each lines up
-0:35
-nicely with the top and bottom of these
-0:37
-boxes so it's easy to remember for the
-0:39
-legs the hip joints will start on the
-0:41
-same level as the wrists the knees will
-0:43
-be roughly at the halfway point and all
-0:46
-the way down we'll have the ankle and
-0:47
-just like that we have good human
-0:49
-proportions now all we have to do is
-0:51
-connect the dots to get a basic
-0:52
-mannequin that we could then draw over
-0:54
-and use as reference for the final
-0:56
-drawing simple yet effective the box
-0:58
-method helps because</t>
+          <t>["what most artists struggle with when\ndrawing characters are proportions oh\nyikes so how do you get great\nproportions every time use the box\nmethod for the average character the\nlegs will make up half the height of the\ncharacter so we can start with the full\nheight and cut it in half in this\nsection we'll have the head the Torso\nand the pelvis boxes with the Torso box\nslightly taller than the other two we\ncan even split the Torso box in half and\nthat's where the line marking the chest\nmuscle will be what's nice with boxes is\nthat there are some of the easiest\nthings to draw in perspective next let's\nadd the limbs by starting with circles\nfor each of the joints shoulders elbows\nwrists and you can see how each lines up\nnicely with the top and bottom of these\nboxes so it's easy to remember for the\nlegs the hip joints will start on the\nsame level as the wrists the knees will\nbe roughly at the halfway point and all\nthe way down we'll have the ankle and\njust like that we have good human\nproportions now all we have to do is\nconnect the dots to get a basic\nmannequin that we could then draw over\nand use as reference for the final\ndrawing simple yet effective the box\nmethod helps because"]</t>
         </is>
       </c>
     </row>
@@ -645,7 +582,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[[('Love to see this side of manny and little manny bonding 🫶🫶🫶 sending positive thoughts and prayers ', '2개월 전'), ('He’s so adorable &amp; intelligent ️ it’s like he waited for the camera to focus on him to say “Hey guys” 🥹 such a beautiful soul i love y’all sm, que mi Diosito siempre los bendiga!!', '1개월 전'), ('You’re such a sweet patient dad with him ', '1개월 전'), ('It makes me so sad that not everyone has a good experience with ABA. I am an RBT currently on the path to becoming a BCBA. I’m also a mom &amp; aunt to neurodivergent children. I see how bad people can be when they are just in it for the money or just as another job. If you really don’t love it, it shows. You guys are doing amazing! Sending blessings. I love to see this content, it’s very raw. Thank you! Would love to see your must have items you guys use with many. Also, sensory friendly places etc.', '2개월 전'), ('My best friend told me that Jenny is her aunt, (Geraldine Merino)', '2일 전'), ("Awww poor manny ! Good luck lil dude! And I'm here for the switch up! Saludos  from AZ", '2개월 전'), ('What clinic do you go to?? In Tijuana \nCan you share information please?  I want to get them', '1개월 전'), ('Great video!', '2개월 전'), ('Wear in Tijuana do you get them?? Please share name or address!! Please I been wanting them for soo long!!', '1개월 전'), ('Loved it', '2개월 전'), ('Hey I work for an amazing clinic in Arizona. We do stem cells… I do I have question. Do you know where they get their stem cells come? Not all are legit. I’m from Cali too and I can tell you that we have the best of the best. List of people lie and put  stuff that’s not really good. Hit me up. You can get stem cells from different sources but not all are good.', '2개월 전'), ('Hi can you said hello in Spanish', '2주 전')]]</t>
+          <t>[[('He’s so adorable &amp; intelligent ️ it’s like he waited for the camera to focus on him to say “Hey guys” 🥹 such a beautiful soul i love y’all sm, que mi Diosito siempre los bendiga!!', '1개월 전'), ('Love to see this side of manny and little manny bonding 🫶🫶🫶 sending positive thoughts and prayers ', '3개월 전'), ('You’re such a sweet patient dad with him ', '2개월 전'), ("Awww poor manny ! Good luck lil dude! And I'm here for the switch up! Saludos  from AZ", '3개월 전'), ('It makes me so sad that not everyone has a good experience with ABA. I am an RBT currently on the path to becoming a BCBA. I’m also a mom &amp; aunt to neurodivergent children. I see how bad people can be when they are just in it for the money or just as another job. If you really don’t love it, it shows. You guys are doing amazing! Sending blessings. I love to see this content, it’s very raw. Thank you! Would love to see your must have items you guys use with many. Also, sensory friendly places etc.', '2개월 전'), ('My best friend told me that Jenny is her aunt, (Geraldine Merino)', '9일 전'), ('What clinic do you go to?? In Tijuana \nCan you share information please?  I want to get them', '2개월 전'), ('Wear in Tijuana do you get them?? Please share name or address!! Please I been wanting them for soo long!!', '2개월 전'), ('Great video!', '3개월 전'), ('Loved it', '3개월 전'), ('Hey I work for an amazing clinic in Arizona. We do stem cells… I do I have question. Do you know where they get their stem cells come? Not all are legit. I’m from Cali too and I can tell you that we have the best of the best. List of people lie and put  stuff that’s not really good. Hit me up. You can get stem cells from different sources but not all are good.', '3개월 전'), ('Hi can you said hello in Spanish', '3주 전')]]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -654,54 +591,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0:00
-what's up YouTube Welcome Back to the
-0:02
-channel today's video is going to be a
-0:04
-little bit different as you can see it's
-0:05
-only me and Manny I'm taking Manny to
-0:07
-inada for his stem cells but yeah come
-0:09
-along with us Papa say hi
-0:13
-guys hi guys a little history about me
-0:16
-I'm I'm I'm originally from California
-0:19
-uh born and raised here I've been taking
-0:21
-stem cells for about 4 years now mainly
-0:24
-for the uh for just you know just to
-0:27
-stay young and just to just just to stay
-0:30
-feeling good you know because um you
-0:33
-know as as as you get older your body is
-0:35
-just not the same
-0:37
-[Music]
-0:40
-anymore so Manny just had his consult
-0:42
-right now with the doctor uh they're
-0:44
-going to switch some things around this
-0:45
-is going to be his fifth injection so uh
-0:50
-he's about to get it right now I think
-0:52
-he's thinking about it Papa what are you
-0:54
-thinking
-0:54
-about thinking about it</t>
+          <t>["what's up YouTube Welcome Back to the\nchannel today's video is going to be a\nlittle bit different as you can see it's\nonly me and Manny I'm taking Manny to\ninada for his stem cells but yeah come\nalong with us Papa say hi\nguys hi guys a little history about me\nI'm I'm I'm originally from California\nuh born and raised here I've been taking\nstem cells for about 4 years now mainly\nfor the uh for just you know just to\nstay young and just to just just to stay\nfeeling good you know because um you\nknow as as as you get older your body is\njust not the same\n[Music]\nanymore so Manny just had his consult\nright now with the doctor uh they're\ngoing to switch some things around this\nis going to be his fifth injection so uh\nhe's about to get it right now I think\nhe's thinking about it Papa what are you\nthinking\nabout thinking about it"]</t>
         </is>
       </c>
     </row>
@@ -740,7 +630,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[[('Very very very very very very very very very very very nice Bhai Jan ', '6일 전'), ('How to download', '5일 전')]]</t>
+          <t>[[('', '10시간 전'), ('Very very very very very very very very very very very nice Bhai Jan ', '13일 전'), ('How to download', '11일 전')]]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -749,42 +639,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0:00
-बैर मुल्क छुटियां गुजारना एक ऑसम
-0:02
-एक्सपीरियंस हो सकता है किसी चाहने वाले
-0:04
-के साथ महंगा डिनर करना बहुत अमेजिंग लगता
-0:07
-है पता है क्यों क्योंकि यह सब आपको बहुत
-0:09
-हैप्पीनेस देता है लेकिन कभी वोह भी ट्राई
-0:12
-कीजिएगा जो बताने जा रहा हूं कभी भूख के
-0:14
-मारे बच्चों के लिए खाना अरेंज करके
-0:17
-देखिएगा कभी एक या दो बच्चों की दीनी
-0:20
-तालीम का बंदोबस्त करके देखिएगा या फिर
-0:22
-किसी एक बच्चे को पूरे साल के लिए स्पंस
-0:25
-करके देखिएगा यह सिर्फ आपको खुशी नहीं
-0:27
-देगा बल्कि आपको मौका देगा उनके को छूने
-0:30
-का फखर के साथ मुस्कुराने का यही नहीं यह
-0:34
-छोटी सी नेकी आपको एक ऐसे एहसास से मिलवा
-0:36
-जाएगी जिसे आप जिंदगी भर याद रखेंगे तो
-0:39
-सोचे नहीं हाथ बढ़ाएं दावत इस्लामी लीथन
-0:42
-2024 में डोनेट
-0:45
-करें अल्लाह अल्लाह अल्लाह अल्लाह</t>
+          <t>['बैर मुल्क छुटियां गुजारना एक ऑसम\nएक्सपीरियंस हो सकता है किसी चाहने वाले\nके साथ महंगा डिनर करना बहुत अमेजिंग लगता\nहै पता है क्यों क्योंकि यह सब आपको बहुत\nहैप्पीनेस देता है लेकिन कभी वोह भी ट्राई\nकीजिएगा जो बताने जा रहा हूं कभी भूख के\nमारे बच्चों के लिए खाना अरेंज करके\nदेखिएगा कभी एक या दो बच्चों की दीनी\nतालीम का बंदोबस्त करके देखिएगा या फिर\nकिसी एक बच्चे को पूरे साल के लिए स्पंस\nकरके देखिएगा यह सिर्फ आपको खुशी नहीं\nदेगा बल्कि आपको मौका देगा उनके को छूने\nका फखर के साथ मुस्कुराने का यही नहीं यह\nछोटी सी नेकी आपको एक ऐसे एहसास से मिलवा\nजाएगी जिसे आप जिंदगी भर याद रखेंगे तो\nसोचे नहीं हाथ बढ़ाएं दावत इस्लामी लीथन\n2024 में डोनेट\nकरें अल्लाह अल्लाह अल्लाह अल्लाह']</t>
         </is>
       </c>
     </row>
@@ -819,7 +674,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[[(' nice, in Colombia many many nice restaurants allow your furry friends to come in (subject to size) nice one', '3주 전(수정됨)'), ('Sounds like a nightmare for service dogs', '3주 전')]]</t>
+          <t>[[(' nice, in Colombia many many nice restaurants allow your furry friends to come in (subject to size) nice one', '1개월 전(수정됨)'), ('Sounds like a nightmare for service dogs', '1개월 전')]]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -828,30 +683,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0:00
-I lived abroad outside the US for many
-0:02
-years and I never saw a supermarket
-0:04
-where you could bring your dog so now
-0:06
-I'm back in the US and not every
-0:09
-Supermarket is like this but this one is
-0:11
-a Whole Foods in Miami South Beach and
-0:14
-so many people bring their dog which is
-0:17
-really interesting it can be a nice way
-0:21
-to integrate your dog into everyday life
-0:24
-but the funny thing is there's actually
-0:25
-a sign that says dogs aren't allowed so
-0:27
-what do you think</t>
+          <t>["I lived abroad outside the US for many\nyears and I never saw a supermarket\nwhere you could bring your dog so now\nI'm back in the US and not every\nSupermarket is like this but this one is\na Whole Foods in Miami South Beach and\nso many people bring their dog which is\nreally interesting it can be a nice way\nto integrate your dog into everyday life\nbut the funny thing is there's actually\na sign that says dogs aren't allowed so\nwhat do you think"]</t>
         </is>
       </c>
     </row>
@@ -886,7 +718,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[[("I'm pretty sure the Catholic Church has a no-mustache saint policy.", '2개월 전'), ('Regarding saint patrons of criminals, I heard once Saint Nicholas was seen as patron of thieves. There was something also about the Good Thief, you know that guy who was crucified next to Jesus...', '2개월 전'), ('No major christian figure has ever been regarded as a criminal in the eyes of the law... totally never...', '2개월 전'), ("yeah that's Freddie Mercury", '2개월 전'), ('I remember seeing this Saint from the intro to Narcos: Mexico and kinda wanting to know who this character is/was.', '2개월 전'), ('Your shorts are fire', '2개월 전'), ("I'd like your take on José Gregorio Hernández from Venezuela.", '2개월 전'), ('Folk religion is so cool and beautiful! I’m a pagan and I consider my religion a folk religion.', '6일 전(수정됨)'), ('Was cleaning out a house here in the usa. In one of the rooms was a shrine of that dude. Took the statue to a pawn shop and they refused to take it or even let it in the shop...', '2개월 전'), ('If Teresa can be considered a saint then everyone can', '2개월 전'), ('Beautiful hero workship', '2개월 전'), ("I'm first  pretty sure I first heard of this while watching Breaking Bad.", '2개월 전'), ('for what you say and the kind of rituals thats more like a kind of santeria than catholic practices.', '2개월 전'), ('I visited San Simon Shrine in Chichicastenango, Guatemala. Very similar kind of guy… kinda’ creepy, kinda’ cool. He must have protected me it was 1984…', '2개월 전'), ('Heresy in the highest regard', '2개월 전'), ('Ya bro I know that guy he’s on my hot sauce bottle', '2개월 전'), ("He ain't no robin hood but he sure is robbing the hood", '2개월 전'), ("There's a Novela called Malverde. I imagine it's about him. I've never seen it.", '2개월 전'), ("can you discuss abt Rizal, the national hero of Philippines. He's sometimes seen by folk christians as a saint but also Jesus Christ himself", '2개월 전'), ('How is it that so many channels handling religion or evolution draw a plethora of reactionaries to their Shorts even when the full videos usually come with some interesting discussion?', '2개월 전(수정됨)'), ('latín american catholicism and how it incorporates indigenous elements into its practice is so uniquely beautiful', '2개월 전'), ('They certainly like their idols', '2개월 전'), ('That’s John Waters.', '2개월 전'), ('Looks like Saddam Hussein plus Escobar imo', '2개월 전'), ("Saint Patrick isn't recognized by the church either", '2개월 전'), ("As a LEO in Texas, I have encountered and arrested many people carrying tributes to him. So, he's obviously not doing a good job intervening for them.\n\nA more common one, though, is Santa Muerte. Can you do a video on that?", '2개월 전(수정됨)'), ('DEAD Jesus Malverde “Joshua* of the Bad-Green” now the bad green here is money but I can’t help but make that herbal leap\n\n*Yehoshua being the transliteration etc etc you guys all know this stuff we’ve been doing this long enough.', '1개월 전(수정됨)'), ('That’s benny', '2개월 전'), ('Worshipping saints is wierd enough. This is definitely some Santeria', '2개월 전'), ('Really, Malverde? Evil green? That’s what you name a saint and you still call him a saint? The word evil is literally in the name, may as well have St. Juan Diablorosa and St. Pablo Asesinegro', '2개월 전'), ('Hey-soos gonna Heysoous', '2개월 전'), ('Have you heard of Santa Muerte?', '2개월 전'), ('El chapo a good Christian', '2개월 전'), ('Idol worship', '2개월 전'), ('Eh please Señor Sente eh no DEA please', '2개월 전(수정됨)'), ('Is this even official?', '2개월 전'), ('Grande Malverde', '2개월 전'), ('Viva culiacan sinaloa', '2개월 전'), ("Taking into account that his “miracles” help kidnappers, murderers, r_pists and drug addicts, I would say that there's nothing saintly about him, rather it would be some type of demonic entity.", '2개월 전'), ('Eeh Senor Sente no DEA please', '1개월 전'), ('How is this not idolatry?', '2개월 전'), ('Just clarifying what a Catholic Saint is for everyone: it’s someone who’s been confirmed to have gone to heaven. If your great grandfather went to heaven, he’s a Saint. \n\nEvery single person who has gone to heaven is a Saint, but for obvious reasons it is very, very difficult to confirm whether they have while on earth. The named Saints are those people who, through research, discernment, and the careful study of their life by the Church, have been determined to have definitely gone to heaven after they died. \n\nJesús Malverde isn’t an official Saint because he was an outlaw specifically or because he’s revered by criminals or anything like that. It’s because his morally grey life makes it impossible to confirm he ended up in heaven.', '2개월 전(수정됨)'), ('Kind of like the gaucho gil  or San la muerteIn Argentina', '2개월 전'), ('incredibly pagan', '2개월 전'), ('Idolatry', '2개월 전'), ('Fake saint lol', '2개월 전'), ('Nice hairdo vs your usual', '2개월 전'), ("For Catholics: The folk saints like this are not recognized by the Church and therefore cannot be relied upon as intercessors. If the Church hasn't said it, and it does not bear any fruit, it is not permitted to venerate them.", '2개월 전'), ('Helping the poor doesn’t excuse you for helping drug cartels hippy the drugs that were sold destroyed 1000’s of more lives then he helped', '2개월 전'), ("Remeber when the Bible said we weren't supposed to worship idols. The catholic church dosent lol", '2개월 전'), ('Hare Krishna', '2개월 전'), ('Disgusting graven images and idolatry', '1개월 전'), ('Wtf...', '2개월 전'), ('Faux-saint', '2개월 전'), ('Give us a genuinely comprehensible reasoning on why not to revere this person\n"Acknowledging that is actually reductive️"', '2개월 전'), ('Idolatry. No "saint" should be praised like this', '2개월 전'), ('Hahahaha that’s tradition I guess', '2개월 전'), ('Idols are bad', '2개월 전'), ('Though shalt not have any other gods before me. \n\nThe Bible says that only God the Father, Son &amp; Holy Spirit are to be prayed to because they are one. \n\nPraying to Mary or to the saints is stupid at best and down right idolatry at worst. \n\nThese things the Catholic Church has taught has no basis in the Bible, remember Romans 3:4 declares “let God be true, but every man a liar!” \n\nIf what someone is telling you doesn’t line up with the word of God, then don’t do it.', '2개월 전'), ('Yeah hpu have no idea what you are talkomg about', '2개월 전'), ('The question that should be asked: who is the old god whose this mask is now?', '2개월 전'), ('Catholics try not to commit idolatry challenge: impossible', '2개월 전'), ('Devil worship is devil worship.', '2개월 전'), ('Can we stop saying “late 1800s” to mean late 19th century? Late 1800s would mean 1807-ish, when Malverde wasn’t born until 1870.', '2개월 전'), ("I'm a fan of la Santa muerte and various black Madonnas. Yeah the church hella racist", '2개월 전'), ('This is a completely different religion than Christianity let alone Roman catholicism.', '2개월 전'), ('Bring back the spanish inquisition', '2개월 전'), ('Jesus lives! ️ and is God  Christ ️ and King ', '2개월 전'), ('This is idolic worship, it has nothing to do with the bible, focus on Jesus, don’t get confused and exonerate saints, these are just people who have died. Jesus is the living saviour exonerate him. Believe on him and thou shalt be saved from an eternity of hell fire.', '2개월 전'), ("I don't want to be offensive but what's up with Mexico and criminal folk saints? There's also Santa Muerte.", '2개월 전'), ('No American cares dude. ', '2개월 전'), ('Please consider captions 🫶 Thanks for all your work!', '2개월 전'), ('Idolatry', '2개월 전'), ('Idolatry', '1개월 전')]]</t>
+          <t>[[("I'm pretty sure the Catholic Church has a no-mustache saint policy.", '3개월 전'), ('No major christian figure has ever been regarded as a criminal in the eyes of the law... totally never...', '2개월 전'), ('Regarding saint patrons of criminals, I heard once Saint Nicholas was seen as patron of thieves. There was something also about the Good Thief, you know that guy who was crucified next to Jesus...', '3개월 전'), ("yeah that's Freddie Mercury", '2개월 전'), ('Your shorts are fire', '2개월 전'), ('I remember seeing this Saint from the intro to Narcos: Mexico and kinda wanting to know who this character is/was.', '3개월 전'), ("I'd like your take on José Gregorio Hernández from Venezuela.", '3개월 전'), ('Folk religion is so cool and beautiful! I’m a pagan and I consider my religion a folk religion.', '12일 전(수정됨)'), ('If Teresa can be considered a saint then everyone can', '3개월 전'), ('DEAD Jesus Malverde “Joshua* of the Bad-Green” now the bad green here is money but I can’t help but make that herbal leap\n\n*Yehoshua being the transliteration etc etc you guys all know this stuff we’ve been doing this long enough.', '1개월 전(수정됨)'), ('Was cleaning out a house here in the usa. In one of the rooms was a shrine of that dude. Took the statue to a pawn shop and they refused to take it or even let it in the shop...', '3개월 전'), ('Beautiful hero workship', '2개월 전'), ('Really, Malverde? Evil green? That’s what you name a saint and you still call him a saint? The word evil is literally in the name, may as well have St. Juan Diablorosa and St. Pablo Asesinegro', '2개월 전'), ('I visited San Simon Shrine in Chichicastenango, Guatemala. Very similar kind of guy… kinda’ creepy, kinda’ cool. He must have protected me it was 1984…', '2개월 전'), ("I'm first  pretty sure I first heard of this while watching Breaking Bad.", '2개월 전'), ('Ya bro I know that guy he’s on my hot sauce bottle', '2개월 전'), ('for what you say and the kind of rituals thats more like a kind of santeria than catholic practices.', '3개월 전'), ('Heresy in the highest regard', '2개월 전'), ("There's a Novela called Malverde. I imagine it's about him. I've never seen it.", '2개월 전'), ("He ain't no robin hood but he sure is robbing the hood", '3개월 전'), ('They certainly like their idols', '2개월 전'), ('Worshipping saints is wierd enough. This is definitely some Santeria', '2개월 전'), ('That’s John Waters.', '3개월 전'), ('Looks like Saddam Hussein plus Escobar imo', '2개월 전'), ("can you discuss abt Rizal, the national hero of Philippines. He's sometimes seen by folk christians as a saint but also Jesus Christ himself", '2개월 전'), ('That’s benny', '3개월 전'), ("Saint Patrick isn't recognized by the church either", '2개월 전'), ('Eh please Señor Sente eh no DEA please', '2개월 전(수정됨)'), ('El chapo a good Christian', '2개월 전'), ('Grande Malverde', '3개월 전'), ('Hey-soos gonna Heysoous', '3개월 전'), ('Idol worship', '2개월 전'), ('Viva culiacan sinaloa', '2개월 전'), ('How is it that so many channels handling religion or evolution draw a plethora of reactionaries to their Shorts even when the full videos usually come with some interesting discussion?', '3개월 전(수정됨)'), ('Is this even official?', '2개월 전'), ('Have you heard of Santa Muerte?', '3개월 전'), ("As a LEO in Texas, I have encountered and arrested many people carrying tributes to him. So, he's obviously not doing a good job intervening for them.\n\nA more common one, though, is Santa Muerte. Can you do a video on that?", '3개월 전(수정됨)'), ('Eeh Senor Sente no DEA please', '1개월 전'), ('Kind of like the gaucho gil  or San la muerteIn Argentina', '2개월 전'), ('Helping the poor doesn’t excuse you for helping drug cartels hippy the drugs that were sold destroyed 1000’s of more lives then he helped', '3개월 전'), ('How is this not idolatry?', '2개월 전'), ("Taking into account that his “miracles” help kidnappers, murderers, r_pists and drug addicts, I would say that there's nothing saintly about him, rather it would be some type of demonic entity.", '2개월 전'), ('incredibly pagan', '3개월 전'), ('Fake saint lol', '2개월 전'), ('Nice hairdo vs your usual', '3개월 전'), ('Idolatry', '2개월 전'), ('Just clarifying what a Catholic Saint is for everyone: it’s someone who’s been confirmed to have gone to heaven. If your great grandfather went to heaven, he’s a Saint. \n\nEvery single person who has gone to heaven is a Saint, but for obvious reasons it is very, very difficult to confirm whether they have while on earth. The named Saints are those people who, through research, discernment, and the careful study of their life by the Church, have been determined to have definitely gone to heaven after they died. \n\nJesús Malverde isn’t an official Saint because he was an outlaw specifically or because he’s revered by criminals or anything like that. It’s because his morally grey life makes it impossible to confirm he ended up in heaven.', '2개월 전(수정됨)'), ('Give us a genuinely comprehensible reasoning on why not to revere this person\n"Acknowledging that is actually reductive️"', '3개월 전'), ('Disgusting graven images and idolatry', '1개월 전'), ('Wtf...', '3개월 전'), ("Remeber when the Bible said we weren't supposed to worship idols. The catholic church dosent lol", '2개월 전'), ('latín american catholicism and how it incorporates indigenous elements into its practice is so uniquely beautiful', '2개월 전'), ("For Catholics: The folk saints like this are not recognized by the Church and therefore cannot be relied upon as intercessors. If the Church hasn't said it, and it does not bear any fruit, it is not permitted to venerate them.", '3개월 전'), ('Faux-saint', '3개월 전'), ('Hahahaha that’s tradition I guess', '2개월 전'), ('Hare Krishna', '2개월 전'), ('The question that should be asked: who is the old god whose this mask is now?', '2개월 전'), ('Idolatry. No "saint" should be praised like this', '2개월 전'), ('Yeah hpu have no idea what you are talkomg about', '2개월 전'), ('Idols are bad', '3개월 전'), ('Though shalt not have any other gods before me. \n\nThe Bible says that only God the Father, Son &amp; Holy Spirit are to be prayed to because they are one. \n\nPraying to Mary or to the saints is stupid at best and down right idolatry at worst. \n\nThese things the Catholic Church has taught has no basis in the Bible, remember Romans 3:4 declares “let God be true, but every man a liar!” \n\nIf what someone is telling you doesn’t line up with the word of God, then don’t do it.', '2개월 전'), ('Catholics try not to commit idolatry challenge: impossible', '2개월 전'), ('Can we stop saying “late 1800s” to mean late 19th century? Late 1800s would mean 1807-ish, when Malverde wasn’t born until 1870.', '3개월 전'), ('Devil worship is devil worship.', '3개월 전'), ("I'm a fan of la Santa muerte and various black Madonnas. Yeah the church hella racist", '3개월 전'), ('This is idolic worship, it has nothing to do with the bible, focus on Jesus, don’t get confused and exonerate saints, these are just people who have died. Jesus is the living saviour exonerate him. Believe on him and thou shalt be saved from an eternity of hell fire.', '2개월 전'), ('Bring back the spanish inquisition', '2개월 전'), ('This is a completely different religion than Christianity let alone Roman catholicism.', '3개월 전'), ('Jesus lives! ️ and is God  Christ ️ and King ', '3개월 전'), ("I don't want to be offensive but what's up with Mexico and criminal folk saints? There's also Santa Muerte.", '3개월 전'), ('No American cares dude. ', '2개월 전'), ('Please consider captions 🫶 Thanks for all your work!', '3개월 전'), ('Idolatry', '2개월 전'), ('Idolatry', '2개월 전')]]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -895,60 +727,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0:00
-this Mustachio fellow is Jesus mde a
-0:03
-popular Saint in Mexico but he's not
-0:05
-officially recognized by the Catholic
-0:06
-Church he's what Scholars call a folk
-0:09
-Saint you can find informal shrines and
-0:11
-chapels to him across Mexico and the US
-0:13
-featuring his distinctive statue where
-0:15
-devotees will offer candles flowers and
-0:18
-sometimes alcohol or tobacco along with
-0:20
-their prayers but he also has a bad
-0:22
-reputation as a narco Saint revered by
-0:25
-drug cartel members according to Legend
-0:27
-Jesus malde was a Robin Hood likee
-0:29
-figure F back in the late 1800s as an
-0:32
-outlaw he was a morally gray figure so
-0:35
-some cartel members venerate him as a
-0:37
-saint that not only overlooks criminal
-0:39
-activities but might even help you break
-0:41
-the law but calling him a narco Saint is
-0:43
-reductive thousands and thousands of
-0:45
-people who are not involved in the drug
-0:47
-trade at all rever him as a saint who
-0:49
-helps the poor and the oppressed the
-0:51
-myth of malverde as a heroic Outlaw
-0:53
-standing up against the rich appeals to
-0:55
-all sorts of people especially people
-0:57
-seeking his help to overcome hardship</t>
+          <t>["this Mustachio fellow is Jesus mde a\npopular Saint in Mexico but he's not\nofficially recognized by the Catholic\nChurch he's what Scholars call a folk\nSaint you can find informal shrines and\nchapels to him across Mexico and the US\nfeaturing his distinctive statue where\ndevotees will offer candles flowers and\nsometimes alcohol or tobacco along with\ntheir prayers but he also has a bad\nreputation as a narco Saint revered by\ndrug cartel members according to Legend\nJesus malde was a Robin Hood likee\nfigure F back in the late 1800s as an\noutlaw he was a morally gray figure so\nsome cartel members venerate him as a\nsaint that not only overlooks criminal\nactivities but might even help you break\nthe law but calling him a narco Saint is\nreductive thousands and thousands of\npeople who are not involved in the drug\ntrade at all rever him as a saint who\nhelps the poor and the oppressed the\nmyth of malverde as a heroic Outlaw\nstanding up against the rich appeals to\nall sorts of people especially people\nseeking his help to overcome hardship"]</t>
         </is>
       </c>
     </row>
@@ -983,7 +762,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[[('السلام عليكم ورحمة الله وبركاته \nجزاك الله خيرا على هذا العلم', '7일 전'), ('I remember this topic. \nI was teaching a medical technician on how to do ECG by having her do one me, and the machine gives a STEMI warning. Just J point sloping, but I did have a delta waves. Thought it was really cool.', '7일 전'), ('Hi medicosis ', '7일 전'), ('Hello.', '7일 전')]]</t>
+          <t>[[('السلام عليكم ورحمة الله وبركاته \nجزاك الله خيرا على هذا العلم', '2주 전'), ('I remember this topic. \nI was teaching a medical technician on how to do ECG by having her do one me, and the machine gives a STEMI warning. Just J point sloping, but I did have a delta waves. Thought it was really cool.', '2주 전'), ('', '5일 전'), ('Hi medicosis ', '2주 전'), ('Hello.', '13일 전')]]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -992,52 +771,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0:00
-Cardiology in 1 minute with meosis
-0:02
-perfectionalis today's topic is Wolf
-0:04
-Parkinson White syndrome or wpw which is
-0:08
-considered an atrio ventricular re-entry
-0:11
-teoc cardia which is a subtype of
-0:13
-supraventricular teoc cardia back to
-0:16
-normal cardiac conduction we start from
-0:18
-the Sino atrial node which supplies both
-0:21
-Atria then we give it to the atrio
-0:24
-ventricular node which will supply the
-0:26
-bundle of His right bundle branch left
-0:28
-bundle branch to supply the ventricles
-0:31
-what happens in Wolf Parkinson White
-0:33
-syndrome is that we have a faster
-0:35
-pathway towards the ventricle by passing
-0:38
-The Av node this abnormal pathway is
-0:40
-faster because it's faster it gives me
-0:43
-preexcitation and an earlier upward
-0:46
-deflection known as the Delta wave this
-0:49
-shortens the PR interval but widens the
-0:52
-QRS complex St and t-wave changes are
-0:55
-not uncommon watch the full video in my
-0:58
-Cardiology playlist</t>
+          <t>["Intro\nCardiology in 1 minute with meosis\nperfectionalis today's topic is Wolf\nParkinson White syndrome or wpw which is\nconsidered an atrio ventricular re-entry\nteoc cardia which is a subtype of\nsupraventricular teoc cardia back to\nWhat is WPW\nnormal cardiac conduction we start from\nthe Sino atrial node which supplies both\nAtria then we give it to the atrio\nventricular node which will supply the\nbundle of His right bundle branch left\nbundle branch to supply the ventricles\nwhat happens in Wolf Parkinson White\nsyndrome is that we have a faster\npathway towards the ventricle by passing\nThe Av node this abnormal pathway is\nfaster because it's faster it gives me\nWhat happens\npreexcitation and an earlier upward\ndeflection known as the Delta wave this\nshortens the PR interval but widens the\nQRS complex St and t-wave changes are\nnot uncommon watch the full video in my\nCardiology playlist"]</t>
         </is>
       </c>
     </row>
@@ -1076,7 +810,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[[('兔子非常嗜甜，個性也特好', '9개월 전'), ('這個循環很是巧妙', '9개월 전'), ('貓個性不差啊！他們只是在作自己。', '9개월 전'), ('沒點心吃我真的也會比較機掰', '9개월 전'), ('不過99.9%寵物的問題都來自於飼主', '2개월 전'), ('動物都是美的', '6개월 전'), ('原來是因為太苦了(#', '9개월 전'), ('可是我超愛吃甜的。。。不過我不養貓', '9개월 전'), ('原來他們吃不到甜味啊', '9개월 전'), ('所有ㄧ切遇到的人事地物也是 包括你', '6개월 전'), ('喵', '3개월 전'), ('', '9개월 전')]]</t>
+          <t>[[('兔子非常嗜甜，個性也特好', '9개월 전'), ('這個循環很是巧妙', '9개월 전'), ('貓個性不差啊！他們只是在作自己。', '9개월 전'), ('沒點心吃我真的也會比較機掰', '9개월 전'), ('喵', '4개월 전'), ('所有ㄧ切遇到的人事地物也是 包括你', '6개월 전'), ('不過99.9%寵物的問題都來自於飼主', '2개월 전'), ('動物都是美的', '6개월 전'), ('可是我超愛吃甜的。。。不過我不養貓', '9개월 전'), ('原來是因為太苦了(#', '9개월 전'), ('原來他們吃不到甜味啊', '9개월 전'), ('', '9개월 전')]]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1128,7 +862,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[[('It is purpose that created us, that binds us, that drives us', '5일 전'), ('Take a day off! ', '2일 전'), ('World peace win win', '5일 전'), ('Full video link?', '5일 전'), ('To write a song that would save the soul of everyone who heard it', '5일 전'), ('Greatest badminton player of all time.', '5일 전'), ("I would walk into a convenience store and randomly choose the winning Powerball numbers and I'm buying 20 tickets with those exact same numbers, that way even if I do have to split the jackpot with another winner its not an even split.", '5일 전'), ('Become the sad worm god of Arrakis', '4일 전'), ('Make Money and live With FREEDOM and Responsibilities.', '5일 전(수정됨)')]]</t>
+          <t>[[('It is purpose that created us, that binds us, that drives us', '12일 전'), ('World peace win win', '12일 전'), ('Take a day off! ', '9일 전'), ('Full video link?', '12일 전'), ('To write a song that would save the soul of everyone who heard it', '12일 전'), ('Greatest badminton player of all time.', '12일 전'), ('Make Money and live With FREEDOM and Responsibilities.', '12일 전(수정됨)'), ('Become the sad worm god of Arrakis', '11일 전'), ("I would walk into a convenience store and randomly choose the winning Powerball numbers and I'm buying 20 tickets with those exact same numbers, that way even if I do have to split the jackpot with another winner its not an even split.", '12일 전')]]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1141,26 +875,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0:00
-what one great thing would you dare to
-0:02
-dream if you knew you could not fail if
-0:05
-you knew beyond the shadow of a doubt
-0:06
-that you could not fail what one thing
-0:08
-would you set as a goal for yourself
-0:10
-because sometimes answering that
-0:11
-question will tell you the one thing
-0:13
-that you've been put on this Earth to
-0:15
-accomplish
-0:20
-[Music]</t>
+          <t>["what one great thing would you dare to\ndream if you knew you could not fail if\nyou knew beyond the shadow of a doubt\nthat you could not fail what one thing\nwould you set as a goal for yourself\nbecause sometimes answering that\nquestion will tell you the one thing\nthat you've been put on this Earth to\naccomplish\n[Music]"]</t>
         </is>
       </c>
     </row>
@@ -1203,7 +918,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[[('You know you’re a good interviewer when you can get somebody reevaluating reasons behind their own creative decisions. RIP James Lipton.', '1년 전(수정됨)'), ('James Lipton always asked the most thoughtful and insightful questions of his guests. ', '1년 전'), ("For context, the interviewer (James Lipton) is referencing the final scene in Spielberg's movie Close Encounters of the Third Kind (1977). The shots of Spielberg's parents are from his movie The Fablemans (2022) which is based off his own life.", '1년 전(수정됨)'), ('I’ve been listening to this pod for like 6 years. This is a top 5 all timer episode.', '1년 전'), ('Thank you very much for the thoughtful editing! I will show this video to my friends after they watch close encounters, it will blow their minds.', '1년 전'), ('I love this channel so goddamn much', '1년 전'), ("A good interviewer's questions reveal things to the audience, a great interviewer's questions reveal things to the interviewee", '7개월 전'), ('In college I kept solving math problems on my sleep. I guess was stressed about my STEM classes and I kept doing chemistry and math in my sleep! And it became a nightmare. I talked to my mom once about it and she said YOUR DAD, HE SOLVES THINGS IN HIS DREAMS ALL THE TIME. \n\nI’m a soon to be father to a little boy. I hope he too solves things in his dreams. Can’t wait for that talk. Idk. It’s a legacy we pass off. ', '1년 전(수정됨)'), ('Technology communication via music tangentially reminded me of Electric Dreams. Short Circuit, eat your heart out.', '1년 전(수정됨)'), ('The 3  little 1’s \nI love how there little guitars sound like real tone but, out of tune slightly it IS MAGNIFICENT \n  ️', '11개월 전'), ('Freud take a sip of tea camly', '1년 전'), ('1:30:33 ', '1년 전'), ('A really good question indeed! When is this interview from?', '1년 전'), ('Hello Steven:) greetings from Poland', '1년 전'), ('', '1년 전'), ('ハリウッドの社長に感謝します', '1년 전'), ('This movie, with all the pacing issues it has, has always fascinated me.', '1년 전'), ('ハーバードの頭の良さはどこか東京大学の医者の先生方に似ています', '1년 전'), ('And the questions they ask these days', '1년 전'), ('I promise I’ve created an event that innocent which corrects a dreaded clip of your movie \nnever before viewed\nIt’s not even in the deleted 30th version \n you will like \nUntil Heaven brings us together I’ll save it just for you Steven !!!! ', '11개월 전'), ("Awwww... I still don't like the movie but it really is cute how a writer's personal life can seep into stories in way they don't even notice.", '1년 전'), ('This could have been posted as a normal video that happens to be short.', '1년 전'), ("this man is a LIAR. \nClose Encounters was a mirror film. \nDerived from...'2001: A Space Odyssey'.", '1년 전')]]</t>
+          <t>[[('James Lipton always asked the most thoughtful and insightful questions of his guests. ', '1년 전'), ("For context, the interviewer (James Lipton) is referencing the final scene in Spielberg's movie Close Encounters of the Third Kind (1977). The shots of Spielberg's parents are from his movie The Fablemans (2022) which is based off his own life.", '1년 전(수정됨)'), ('You know you’re a good interviewer when you can get somebody reevaluating reasons behind their own creative decisions. RIP James Lipton.', '1년 전(수정됨)'), ('I’ve been listening to this pod for like 6 years. This is a top 5 all timer episode.', '1년 전'), ('Thank you very much for the thoughtful editing! I will show this video to my friends after they watch close encounters, it will blow their minds.', '1년 전'), ('I love this channel so goddamn much', '1년 전'), ('In college I kept solving math problems on my sleep. I guess was stressed about my STEM classes and I kept doing chemistry and math in my sleep! And it became a nightmare. I talked to my mom once about it and she said YOUR DAD, HE SOLVES THINGS IN HIS DREAMS ALL THE TIME. \n\nI’m a soon to be father to a little boy. I hope he too solves things in his dreams. Can’t wait for that talk. Idk. It’s a legacy we pass off. ', '1년 전(수정됨)'), ('Technology communication via music tangentially reminded me of Electric Dreams. Short Circuit, eat your heart out.', '1년 전(수정됨)'), ("A good interviewer's questions reveal things to the audience, a great interviewer's questions reveal things to the interviewee", '7개월 전'), ('The 3  little 1’s \nI love how there little guitars sound like real tone but, out of tune slightly it IS MAGNIFICENT \n  ️', '11개월 전'), ('A really good question indeed! When is this interview from?', '1년 전'), ('Hello Steven:) greetings from Poland', '1년 전'), ('', '1년 전'), ('Freud take a sip of tea camly', '1년 전'), ('1:30:33 ', '1년 전'), ('ハリウッドの社長に感謝します', '1년 전'), ('ハーバードの頭の良さはどこか東京大学の医者の先生方に似ています', '1년 전'), ('And the questions they ask these days', '1년 전'), ('I promise I’ve created an event that innocent which corrects a dreaded clip of your movie \nnever before viewed\nIt’s not even in the deleted 30th version \n you will like \nUntil Heaven brings us together I’ll save it just for you Steven !!!! ', '11개월 전'), ('This movie, with all the pacing issues it has, has always fascinated me.', '1년 전'), ("Awwww... I still don't like the movie but it really is cute how a writer's personal life can seep into stories in way they don't even notice.", '1년 전'), ('This could have been posted as a normal video that happens to be short.', '1년 전'), ("this man is a LIAR. \nClose Encounters was a mirror film. \nDerived from...'2001: A Space Odyssey'.", '1년 전')]]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1216,32 +931,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0:00
-your father was a computer scientist
-0:02
-your mother was a musician when the
-0:05
-spaceship lands how do they communicate
-0:07
-that's a very good question I like that
-0:11
-you've answered the question they make
-0:13
-music on their computers and they are
-0:15
-able to speak to each other
-0:17
-[Music]
-0:25
-and you see I'd love to say you know I
-0:27
-intended that and I realized that was my
-0:29
-mother and father but not until this
-0:30
-moment
-0:31
-[Applause]</t>
+          <t>["your father was a computer scientist\nyour mother was a musician when the\nspaceship lands how do they communicate\nthat's a very good question I like that\nyou've answered the question they make\nmusic on their computers and they are\nable to speak to each other\n[Music]\nand you see I'd love to say you know I\nintended that and I realized that was my\nmother and father but not until this\nmoment\n[Applause]"]</t>
         </is>
       </c>
     </row>
